--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q190"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,63 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B191" t="n">
+        <v>368</v>
+      </c>
+      <c r="C191" t="n">
+        <v>368</v>
+      </c>
+      <c r="D191" t="n">
+        <v>353.7999877929688</v>
+      </c>
+      <c r="E191" t="n">
+        <v>355.1000061035156</v>
+      </c>
+      <c r="F191" t="n">
+        <v>355.1000061035156</v>
+      </c>
+      <c r="G191" t="n">
+        <v>11263711</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>23</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -11165,7 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,279 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B196" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="C196" t="n">
+        <v>357.3500061035156</v>
+      </c>
+      <c r="D196" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="E196" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="F196" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="G196" t="n">
+        <v>15670410</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6</v>
+      </c>
+      <c r="J196" t="n">
+        <v>10</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>24</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B197" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="C197" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>349.5499877929688</v>
+      </c>
+      <c r="E197" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="F197" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12762030</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I197" t="n">
+        <v>6</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>24</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B198" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="C198" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>351.5499877929688</v>
+      </c>
+      <c r="E198" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="F198" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="G198" t="n">
+        <v>29997540</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I198" t="n">
+        <v>6</v>
+      </c>
+      <c r="J198" t="n">
+        <v>12</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>24</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B199" t="n">
+        <v>365</v>
+      </c>
+      <c r="C199" t="n">
+        <v>366.3999938964844</v>
+      </c>
+      <c r="D199" t="n">
+        <v>358.2000122070312</v>
+      </c>
+      <c r="E199" t="n">
+        <v>360.7999877929688</v>
+      </c>
+      <c r="F199" t="n">
+        <v>360.7999877929688</v>
+      </c>
+      <c r="G199" t="n">
+        <v>27424840</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J199" t="n">
+        <v>13</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>24</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B200" t="n">
+        <v>362</v>
+      </c>
+      <c r="C200" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="D200" t="n">
+        <v>356.1000061035156</v>
+      </c>
+      <c r="E200" t="n">
+        <v>357</v>
+      </c>
+      <c r="F200" t="n">
+        <v>357</v>
+      </c>
+      <c r="G200" t="n">
+        <v>19824727</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6</v>
+      </c>
+      <c r="J200" t="n">
+        <v>14</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>24</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -11445,7 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11499,7 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -11553,7 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11607,7 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11661,7 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11673,6 +11673,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B201" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="C201" t="n">
+        <v>365</v>
+      </c>
+      <c r="D201" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="E201" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="F201" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="G201" t="n">
+        <v>22625815</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I201" t="n">
+        <v>6</v>
+      </c>
+      <c r="J201" t="n">
+        <v>18</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>25</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R201"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11213,7 +11213,7 @@
         <v>23</v>
       </c>
       <c r="O192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
@@ -11725,7 +11725,63 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B202" t="n">
+        <v>363.9500122070312</v>
+      </c>
+      <c r="C202" t="n">
+        <v>363.9500122070312</v>
+      </c>
+      <c r="D202" t="n">
+        <v>357.0499877929688</v>
+      </c>
+      <c r="E202" t="n">
+        <v>358.2999877929688</v>
+      </c>
+      <c r="F202" t="n">
+        <v>358.2999877929688</v>
+      </c>
+      <c r="G202" t="n">
+        <v>15695727</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I202" t="n">
+        <v>6</v>
+      </c>
+      <c r="J202" t="n">
+        <v>19</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>25</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:R209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11781,7 +11781,387 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B203" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="C203" t="n">
+        <v>368.2999877929688</v>
+      </c>
+      <c r="D203" t="n">
+        <v>358</v>
+      </c>
+      <c r="E203" t="n">
+        <v>365.5499877929688</v>
+      </c>
+      <c r="F203" t="n">
+        <v>365.5499877929688</v>
+      </c>
+      <c r="G203" t="n">
+        <v>33575310</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I203" t="n">
+        <v>6</v>
+      </c>
+      <c r="J203" t="n">
+        <v>20</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>25</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B204" t="n">
+        <v>366</v>
+      </c>
+      <c r="C204" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="D204" t="n">
+        <v>359.1499938964844</v>
+      </c>
+      <c r="E204" t="n">
+        <v>360.8999938964844</v>
+      </c>
+      <c r="F204" t="n">
+        <v>360.8999938964844</v>
+      </c>
+      <c r="G204" t="n">
+        <v>21075770</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6</v>
+      </c>
+      <c r="J204" t="n">
+        <v>21</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>25</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B205" t="n">
+        <v>356</v>
+      </c>
+      <c r="C205" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="D205" t="n">
+        <v>352.2999877929688</v>
+      </c>
+      <c r="E205" t="n">
+        <v>355.3500061035156</v>
+      </c>
+      <c r="F205" t="n">
+        <v>355.3500061035156</v>
+      </c>
+      <c r="G205" t="n">
+        <v>16858520</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I205" t="n">
+        <v>6</v>
+      </c>
+      <c r="J205" t="n">
+        <v>24</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>26</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B206" t="n">
+        <v>356.9500122070312</v>
+      </c>
+      <c r="C206" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="D206" t="n">
+        <v>356.25</v>
+      </c>
+      <c r="E206" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="F206" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="G206" t="n">
+        <v>13212380</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I206" t="n">
+        <v>6</v>
+      </c>
+      <c r="J206" t="n">
+        <v>25</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>26</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B207" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="C207" t="n">
+        <v>359.7000122070312</v>
+      </c>
+      <c r="D207" t="n">
+        <v>353.1499938964844</v>
+      </c>
+      <c r="E207" t="n">
+        <v>356.25</v>
+      </c>
+      <c r="F207" t="n">
+        <v>356.25</v>
+      </c>
+      <c r="G207" t="n">
+        <v>27206810</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I207" t="n">
+        <v>6</v>
+      </c>
+      <c r="J207" t="n">
+        <v>26</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>26</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B208" t="n">
+        <v>356.25</v>
+      </c>
+      <c r="C208" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="D208" t="n">
+        <v>348</v>
+      </c>
+      <c r="E208" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="F208" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="G208" t="n">
+        <v>18689180</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>27</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>26</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B209" t="n">
+        <v>357</v>
+      </c>
+      <c r="C209" t="n">
+        <v>362</v>
+      </c>
+      <c r="D209" t="n">
+        <v>355.3999938964844</v>
+      </c>
+      <c r="E209" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="F209" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="G209" t="n">
+        <v>23374936</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I209" t="n">
+        <v>6</v>
+      </c>
+      <c r="J209" t="n">
+        <v>28</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>26</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -11837,7 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11891,7 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11945,7 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11999,7 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -12053,7 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -12107,7 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -12161,7 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R209"/>
+  <dimension ref="A1:R214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11829,7 +11829,7 @@
         <v>25</v>
       </c>
       <c r="O203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P203" t="n">
         <v>0</v>
@@ -12176,6 +12176,276 @@
       <c r="R209" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B210" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="C210" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="D210" t="n">
+        <v>352.0499877929688</v>
+      </c>
+      <c r="E210" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="F210" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="G210" t="n">
+        <v>15688760</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I210" t="n">
+        <v>7</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>27</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B211" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="C211" t="n">
+        <v>355.4500122070312</v>
+      </c>
+      <c r="D211" t="n">
+        <v>350</v>
+      </c>
+      <c r="E211" t="n">
+        <v>351</v>
+      </c>
+      <c r="F211" t="n">
+        <v>351</v>
+      </c>
+      <c r="G211" t="n">
+        <v>12146510</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I211" t="n">
+        <v>7</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>27</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B212" t="n">
+        <v>353</v>
+      </c>
+      <c r="C212" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="D212" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="E212" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="F212" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="G212" t="n">
+        <v>12102100</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I212" t="n">
+        <v>7</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>27</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B213" t="n">
+        <v>352</v>
+      </c>
+      <c r="C213" t="n">
+        <v>356.8500061035156</v>
+      </c>
+      <c r="D213" t="n">
+        <v>350.2999877929688</v>
+      </c>
+      <c r="E213" t="n">
+        <v>350.8500061035156</v>
+      </c>
+      <c r="F213" t="n">
+        <v>350.8500061035156</v>
+      </c>
+      <c r="G213" t="n">
+        <v>11944840</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I213" t="n">
+        <v>7</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>27</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B214" t="n">
+        <v>350.8500061035156</v>
+      </c>
+      <c r="C214" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D214" t="n">
+        <v>349.1000061035156</v>
+      </c>
+      <c r="E214" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="F214" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="G214" t="n">
+        <v>15493262</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I214" t="n">
+        <v>7</v>
+      </c>
+      <c r="J214" t="n">
+        <v>5</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>27</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R214"/>
+  <dimension ref="A1:R223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12229,7 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -12283,7 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -12337,7 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -12391,7 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -12445,7 +12453,495 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B215" t="n">
+        <v>353</v>
+      </c>
+      <c r="C215" t="n">
+        <v>353.5499877929688</v>
+      </c>
+      <c r="D215" t="n">
+        <v>347.2000122070312</v>
+      </c>
+      <c r="E215" t="n">
+        <v>348.2999877929688</v>
+      </c>
+      <c r="F215" t="n">
+        <v>348.2999877929688</v>
+      </c>
+      <c r="G215" t="n">
+        <v>11525940</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I215" t="n">
+        <v>7</v>
+      </c>
+      <c r="J215" t="n">
+        <v>8</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>28</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B216" t="n">
+        <v>349.1000061035156</v>
+      </c>
+      <c r="C216" t="n">
+        <v>353.7000122070312</v>
+      </c>
+      <c r="D216" t="n">
+        <v>348.5499877929688</v>
+      </c>
+      <c r="E216" t="n">
+        <v>349.8500061035156</v>
+      </c>
+      <c r="F216" t="n">
+        <v>349.8500061035156</v>
+      </c>
+      <c r="G216" t="n">
+        <v>8908509</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I216" t="n">
+        <v>7</v>
+      </c>
+      <c r="J216" t="n">
+        <v>9</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>28</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B217" t="n">
+        <v>350.3999938964844</v>
+      </c>
+      <c r="C217" t="n">
+        <v>350.8999938964844</v>
+      </c>
+      <c r="D217" t="n">
+        <v>344.1000061035156</v>
+      </c>
+      <c r="E217" t="n">
+        <v>347.9500122070312</v>
+      </c>
+      <c r="F217" t="n">
+        <v>347.9500122070312</v>
+      </c>
+      <c r="G217" t="n">
+        <v>11556790</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I217" t="n">
+        <v>7</v>
+      </c>
+      <c r="J217" t="n">
+        <v>10</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>28</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B218" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>351.3500061035156</v>
+      </c>
+      <c r="D218" t="n">
+        <v>347</v>
+      </c>
+      <c r="E218" t="n">
+        <v>348.0499877929688</v>
+      </c>
+      <c r="F218" t="n">
+        <v>348.0499877929688</v>
+      </c>
+      <c r="G218" t="n">
+        <v>8045640</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I218" t="n">
+        <v>7</v>
+      </c>
+      <c r="J218" t="n">
+        <v>11</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>28</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B219" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="C219" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="D219" t="n">
+        <v>350</v>
+      </c>
+      <c r="E219" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="F219" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="G219" t="n">
+        <v>16327800</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I219" t="n">
+        <v>7</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>28</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B220" t="n">
+        <v>354.2999877929688</v>
+      </c>
+      <c r="C220" t="n">
+        <v>356.7000122070312</v>
+      </c>
+      <c r="D220" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="E220" t="n">
+        <v>355.3999938964844</v>
+      </c>
+      <c r="F220" t="n">
+        <v>355.3999938964844</v>
+      </c>
+      <c r="G220" t="n">
+        <v>15488340</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I220" t="n">
+        <v>7</v>
+      </c>
+      <c r="J220" t="n">
+        <v>15</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>29</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B221" t="n">
+        <v>350</v>
+      </c>
+      <c r="C221" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="D221" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="E221" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="F221" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="G221" t="n">
+        <v>25005250</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I221" t="n">
+        <v>7</v>
+      </c>
+      <c r="J221" t="n">
+        <v>16</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>29</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B222" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="C222" t="n">
+        <v>346.1499938964844</v>
+      </c>
+      <c r="D222" t="n">
+        <v>336</v>
+      </c>
+      <c r="E222" t="n">
+        <v>337</v>
+      </c>
+      <c r="F222" t="n">
+        <v>337</v>
+      </c>
+      <c r="G222" t="n">
+        <v>25188960</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I222" t="n">
+        <v>7</v>
+      </c>
+      <c r="J222" t="n">
+        <v>18</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>29</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B223" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="C223" t="n">
+        <v>342</v>
+      </c>
+      <c r="D223" t="n">
+        <v>332.0499877929688</v>
+      </c>
+      <c r="E223" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="F223" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="G223" t="n">
+        <v>15335214</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I223" t="n">
+        <v>7</v>
+      </c>
+      <c r="J223" t="n">
+        <v>19</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>29</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R223"/>
+  <dimension ref="A1:R233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12509,7 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -12563,7 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -12617,7 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12671,7 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12725,7 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12779,7 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12833,7 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12887,7 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12941,7 +12957,549 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B224" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="C224" t="n">
+        <v>343</v>
+      </c>
+      <c r="D224" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="E224" t="n">
+        <v>340.9500122070312</v>
+      </c>
+      <c r="F224" t="n">
+        <v>340.9500122070312</v>
+      </c>
+      <c r="G224" t="n">
+        <v>12279130</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I224" t="n">
+        <v>7</v>
+      </c>
+      <c r="J224" t="n">
+        <v>22</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>30</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B225" t="n">
+        <v>342</v>
+      </c>
+      <c r="C225" t="n">
+        <v>342</v>
+      </c>
+      <c r="D225" t="n">
+        <v>326</v>
+      </c>
+      <c r="E225" t="n">
+        <v>334.8999938964844</v>
+      </c>
+      <c r="F225" t="n">
+        <v>334.8999938964844</v>
+      </c>
+      <c r="G225" t="n">
+        <v>13863330</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I225" t="n">
+        <v>7</v>
+      </c>
+      <c r="J225" t="n">
+        <v>23</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>30</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B226" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="C226" t="n">
+        <v>339</v>
+      </c>
+      <c r="D226" t="n">
+        <v>334.6000061035156</v>
+      </c>
+      <c r="E226" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="F226" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="G226" t="n">
+        <v>8729363</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I226" t="n">
+        <v>7</v>
+      </c>
+      <c r="J226" t="n">
+        <v>24</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>30</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B227" t="n">
+        <v>333</v>
+      </c>
+      <c r="C227" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="D227" t="n">
+        <v>328</v>
+      </c>
+      <c r="E227" t="n">
+        <v>329.2000122070312</v>
+      </c>
+      <c r="F227" t="n">
+        <v>329.2000122070312</v>
+      </c>
+      <c r="G227" t="n">
+        <v>12201640</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I227" t="n">
+        <v>7</v>
+      </c>
+      <c r="J227" t="n">
+        <v>25</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>30</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B228" t="n">
+        <v>329.8500061035156</v>
+      </c>
+      <c r="C228" t="n">
+        <v>336.6499938964844</v>
+      </c>
+      <c r="D228" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="E228" t="n">
+        <v>331.8999938964844</v>
+      </c>
+      <c r="F228" t="n">
+        <v>331.8999938964844</v>
+      </c>
+      <c r="G228" t="n">
+        <v>9688122</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I228" t="n">
+        <v>7</v>
+      </c>
+      <c r="J228" t="n">
+        <v>26</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>30</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B229" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="C229" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="D229" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="E229" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="F229" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="G229" t="n">
+        <v>12628370</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I229" t="n">
+        <v>7</v>
+      </c>
+      <c r="J229" t="n">
+        <v>29</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>31</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B230" t="n">
+        <v>331</v>
+      </c>
+      <c r="C230" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="D230" t="n">
+        <v>329.1000061035156</v>
+      </c>
+      <c r="E230" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="F230" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="G230" t="n">
+        <v>8705901</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I230" t="n">
+        <v>7</v>
+      </c>
+      <c r="J230" t="n">
+        <v>30</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>31</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B231" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="C231" t="n">
+        <v>331.25</v>
+      </c>
+      <c r="D231" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="G231" t="n">
+        <v>12402200</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I231" t="n">
+        <v>7</v>
+      </c>
+      <c r="J231" t="n">
+        <v>31</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>31</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B232" t="n">
+        <v>329</v>
+      </c>
+      <c r="C232" t="n">
+        <v>332.8999938964844</v>
+      </c>
+      <c r="D232" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="E232" t="n">
+        <v>328.7000122070312</v>
+      </c>
+      <c r="F232" t="n">
+        <v>328.7000122070312</v>
+      </c>
+      <c r="G232" t="n">
+        <v>13137030</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I232" t="n">
+        <v>8</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>31</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B233" t="n">
+        <v>325.9500122070312</v>
+      </c>
+      <c r="C233" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="D233" t="n">
+        <v>324.5499877929688</v>
+      </c>
+      <c r="E233" t="n">
+        <v>326.25</v>
+      </c>
+      <c r="F233" t="n">
+        <v>326.25</v>
+      </c>
+      <c r="G233" t="n">
+        <v>7271959</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I233" t="n">
+        <v>8</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>31</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R233"/>
+  <dimension ref="A1:R238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13013,7 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -13067,7 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -13121,7 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -13175,7 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -13229,7 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -13283,7 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -13337,7 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -13391,7 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -13445,7 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -13499,7 +13517,279 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B234" t="n">
+        <v>317.9500122070312</v>
+      </c>
+      <c r="C234" t="n">
+        <v>322.2000122070312</v>
+      </c>
+      <c r="D234" t="n">
+        <v>315</v>
+      </c>
+      <c r="E234" t="n">
+        <v>317.0499877929688</v>
+      </c>
+      <c r="F234" t="n">
+        <v>317.0499877929688</v>
+      </c>
+      <c r="G234" t="n">
+        <v>16751760</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I234" t="n">
+        <v>8</v>
+      </c>
+      <c r="J234" t="n">
+        <v>5</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>32</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B235" t="n">
+        <v>317.1499938964844</v>
+      </c>
+      <c r="C235" t="n">
+        <v>322</v>
+      </c>
+      <c r="D235" t="n">
+        <v>310</v>
+      </c>
+      <c r="E235" t="n">
+        <v>311.3500061035156</v>
+      </c>
+      <c r="F235" t="n">
+        <v>311.3500061035156</v>
+      </c>
+      <c r="G235" t="n">
+        <v>12640380</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I235" t="n">
+        <v>8</v>
+      </c>
+      <c r="J235" t="n">
+        <v>6</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>32</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B236" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="C236" t="n">
+        <v>337.2000122070312</v>
+      </c>
+      <c r="D236" t="n">
+        <v>313.2999877929688</v>
+      </c>
+      <c r="E236" t="n">
+        <v>329.75</v>
+      </c>
+      <c r="F236" t="n">
+        <v>329.75</v>
+      </c>
+      <c r="G236" t="n">
+        <v>20755730</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I236" t="n">
+        <v>8</v>
+      </c>
+      <c r="J236" t="n">
+        <v>7</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>32</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B237" t="n">
+        <v>330</v>
+      </c>
+      <c r="C237" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="D237" t="n">
+        <v>324</v>
+      </c>
+      <c r="E237" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="F237" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="G237" t="n">
+        <v>9648681</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I237" t="n">
+        <v>8</v>
+      </c>
+      <c r="J237" t="n">
+        <v>8</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>32</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B238" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="C238" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>325.6000061035156</v>
+      </c>
+      <c r="F238" t="n">
+        <v>325.6000061035156</v>
+      </c>
+      <c r="G238" t="n">
+        <v>7773933</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I238" t="n">
+        <v>8</v>
+      </c>
+      <c r="J238" t="n">
+        <v>9</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>32</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R238"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13573,7 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -13627,7 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -13681,7 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13735,7 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13789,7 +13797,225 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B239" t="n">
+        <v>325</v>
+      </c>
+      <c r="C239" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="D239" t="n">
+        <v>322.2999877929688</v>
+      </c>
+      <c r="E239" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="F239" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="G239" t="n">
+        <v>12463580</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I239" t="n">
+        <v>8</v>
+      </c>
+      <c r="J239" t="n">
+        <v>12</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>33</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B240" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="C240" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="D240" t="n">
+        <v>322</v>
+      </c>
+      <c r="E240" t="n">
+        <v>323.2999877929688</v>
+      </c>
+      <c r="F240" t="n">
+        <v>323.2999877929688</v>
+      </c>
+      <c r="G240" t="n">
+        <v>15172140</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I240" t="n">
+        <v>8</v>
+      </c>
+      <c r="J240" t="n">
+        <v>13</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>33</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B241" t="n">
+        <v>326</v>
+      </c>
+      <c r="C241" t="n">
+        <v>326.3500061035156</v>
+      </c>
+      <c r="D241" t="n">
+        <v>319.2000122070312</v>
+      </c>
+      <c r="E241" t="n">
+        <v>320.2000122070312</v>
+      </c>
+      <c r="F241" t="n">
+        <v>320.2000122070312</v>
+      </c>
+      <c r="G241" t="n">
+        <v>8040049</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I241" t="n">
+        <v>8</v>
+      </c>
+      <c r="J241" t="n">
+        <v>14</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>33</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B242" t="n">
+        <v>324</v>
+      </c>
+      <c r="C242" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="D242" t="n">
+        <v>319.5499877929688</v>
+      </c>
+      <c r="E242" t="n">
+        <v>328.1499938964844</v>
+      </c>
+      <c r="F242" t="n">
+        <v>328.1499938964844</v>
+      </c>
+      <c r="G242" t="n">
+        <v>16425595</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I242" t="n">
+        <v>8</v>
+      </c>
+      <c r="J242" t="n">
+        <v>16</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>33</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R242"/>
+  <dimension ref="A1:R247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13621,7 +13621,7 @@
         <v>32</v>
       </c>
       <c r="O235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
@@ -13853,7 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13907,7 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13961,7 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -14015,7 +14021,279 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B243" t="n">
+        <v>331.9500122070312</v>
+      </c>
+      <c r="C243" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="D243" t="n">
+        <v>328.7999877929688</v>
+      </c>
+      <c r="E243" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="F243" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="G243" t="n">
+        <v>13708990</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I243" t="n">
+        <v>8</v>
+      </c>
+      <c r="J243" t="n">
+        <v>19</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>34</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B244" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="C244" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D244" t="n">
+        <v>332</v>
+      </c>
+      <c r="E244" t="n">
+        <v>334.1499938964844</v>
+      </c>
+      <c r="F244" t="n">
+        <v>334.1499938964844</v>
+      </c>
+      <c r="G244" t="n">
+        <v>15772040</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I244" t="n">
+        <v>8</v>
+      </c>
+      <c r="J244" t="n">
+        <v>20</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>34</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B245" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="C245" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="D245" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="E245" t="n">
+        <v>331.1000061035156</v>
+      </c>
+      <c r="F245" t="n">
+        <v>331.1000061035156</v>
+      </c>
+      <c r="G245" t="n">
+        <v>18916850</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I245" t="n">
+        <v>8</v>
+      </c>
+      <c r="J245" t="n">
+        <v>21</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>34</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B246" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="C246" t="n">
+        <v>333.3999938964844</v>
+      </c>
+      <c r="D246" t="n">
+        <v>328.8999938964844</v>
+      </c>
+      <c r="E246" t="n">
+        <v>329.6000061035156</v>
+      </c>
+      <c r="F246" t="n">
+        <v>329.6000061035156</v>
+      </c>
+      <c r="G246" t="n">
+        <v>8368346</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I246" t="n">
+        <v>8</v>
+      </c>
+      <c r="J246" t="n">
+        <v>22</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>34</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B247" t="n">
+        <v>330</v>
+      </c>
+      <c r="C247" t="n">
+        <v>333.7000122070312</v>
+      </c>
+      <c r="D247" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="E247" t="n">
+        <v>327.1499938964844</v>
+      </c>
+      <c r="F247" t="n">
+        <v>327.1499938964844</v>
+      </c>
+      <c r="G247" t="n">
+        <v>8918814</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I247" t="n">
+        <v>8</v>
+      </c>
+      <c r="J247" t="n">
+        <v>23</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>34</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R247"/>
+  <dimension ref="A1:R251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14077,7 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -14131,7 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -14185,7 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -14239,7 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -14293,7 +14301,225 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B248" t="n">
+        <v>332.7000122070312</v>
+      </c>
+      <c r="C248" t="n">
+        <v>334.2000122070312</v>
+      </c>
+      <c r="D248" t="n">
+        <v>321.75</v>
+      </c>
+      <c r="E248" t="n">
+        <v>323.25</v>
+      </c>
+      <c r="F248" t="n">
+        <v>323.25</v>
+      </c>
+      <c r="G248" t="n">
+        <v>26118300</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I248" t="n">
+        <v>8</v>
+      </c>
+      <c r="J248" t="n">
+        <v>26</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>35</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B249" t="n">
+        <v>327</v>
+      </c>
+      <c r="C249" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="D249" t="n">
+        <v>320.8999938964844</v>
+      </c>
+      <c r="E249" t="n">
+        <v>322.25</v>
+      </c>
+      <c r="F249" t="n">
+        <v>322.25</v>
+      </c>
+      <c r="G249" t="n">
+        <v>21470180</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I249" t="n">
+        <v>8</v>
+      </c>
+      <c r="J249" t="n">
+        <v>28</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>35</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B250" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="C250" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="D250" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="E250" t="n">
+        <v>325.6499938964844</v>
+      </c>
+      <c r="F250" t="n">
+        <v>325.6499938964844</v>
+      </c>
+      <c r="G250" t="n">
+        <v>33808220</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I250" t="n">
+        <v>8</v>
+      </c>
+      <c r="J250" t="n">
+        <v>29</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>35</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B251" t="n">
+        <v>327.6499938964844</v>
+      </c>
+      <c r="C251" t="n">
+        <v>331.6000061035156</v>
+      </c>
+      <c r="D251" t="n">
+        <v>320.6499938964844</v>
+      </c>
+      <c r="E251" t="n">
+        <v>321.7000122070312</v>
+      </c>
+      <c r="F251" t="n">
+        <v>321.7000122070312</v>
+      </c>
+      <c r="G251" t="n">
+        <v>27410595</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I251" t="n">
+        <v>8</v>
+      </c>
+      <c r="J251" t="n">
+        <v>30</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>35</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14357,7 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -14411,7 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -14465,7 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -14519,7 +14525,279 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B252" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="C252" t="n">
+        <v>349.3500061035156</v>
+      </c>
+      <c r="D252" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="E252" t="n">
+        <v>344.8999938964844</v>
+      </c>
+      <c r="F252" t="n">
+        <v>344.8999938964844</v>
+      </c>
+      <c r="G252" t="n">
+        <v>65333800</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I252" t="n">
+        <v>9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>36</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B253" t="n">
+        <v>351</v>
+      </c>
+      <c r="C253" t="n">
+        <v>355</v>
+      </c>
+      <c r="D253" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>350.2000122070312</v>
+      </c>
+      <c r="F253" t="n">
+        <v>350.2000122070312</v>
+      </c>
+      <c r="G253" t="n">
+        <v>65293710</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I253" t="n">
+        <v>9</v>
+      </c>
+      <c r="J253" t="n">
+        <v>3</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>36</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B254" t="n">
+        <v>345</v>
+      </c>
+      <c r="C254" t="n">
+        <v>350.2999877929688</v>
+      </c>
+      <c r="D254" t="n">
+        <v>343.0499877929688</v>
+      </c>
+      <c r="E254" t="n">
+        <v>347.2000122070312</v>
+      </c>
+      <c r="F254" t="n">
+        <v>347.2000122070312</v>
+      </c>
+      <c r="G254" t="n">
+        <v>22005750</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I254" t="n">
+        <v>9</v>
+      </c>
+      <c r="J254" t="n">
+        <v>4</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>36</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B255" t="n">
+        <v>348.6000061035156</v>
+      </c>
+      <c r="C255" t="n">
+        <v>350.4500122070312</v>
+      </c>
+      <c r="D255" t="n">
+        <v>344</v>
+      </c>
+      <c r="E255" t="n">
+        <v>345.3500061035156</v>
+      </c>
+      <c r="F255" t="n">
+        <v>345.3500061035156</v>
+      </c>
+      <c r="G255" t="n">
+        <v>16406870</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I255" t="n">
+        <v>9</v>
+      </c>
+      <c r="J255" t="n">
+        <v>5</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>36</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B256" t="n">
+        <v>345</v>
+      </c>
+      <c r="C256" t="n">
+        <v>345.8500061035156</v>
+      </c>
+      <c r="D256" t="n">
+        <v>336</v>
+      </c>
+      <c r="E256" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="F256" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="G256" t="n">
+        <v>17246888</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I256" t="n">
+        <v>9</v>
+      </c>
+      <c r="J256" t="n">
+        <v>6</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>36</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14581,7 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -14635,7 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -14689,7 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -14743,7 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14797,7 +14805,279 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B257" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="C257" t="n">
+        <v>345.8500061035156</v>
+      </c>
+      <c r="D257" t="n">
+        <v>329.2999877929688</v>
+      </c>
+      <c r="E257" t="n">
+        <v>341.7000122070312</v>
+      </c>
+      <c r="F257" t="n">
+        <v>341.7000122070312</v>
+      </c>
+      <c r="G257" t="n">
+        <v>18687390</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I257" t="n">
+        <v>9</v>
+      </c>
+      <c r="J257" t="n">
+        <v>9</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>37</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B258" t="n">
+        <v>343.9500122070312</v>
+      </c>
+      <c r="C258" t="n">
+        <v>359.75</v>
+      </c>
+      <c r="D258" t="n">
+        <v>340.8500061035156</v>
+      </c>
+      <c r="E258" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="G258" t="n">
+        <v>60920830</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I258" t="n">
+        <v>9</v>
+      </c>
+      <c r="J258" t="n">
+        <v>10</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>37</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B259" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>355.3999938964844</v>
+      </c>
+      <c r="D259" t="n">
+        <v>343.0499877929688</v>
+      </c>
+      <c r="E259" t="n">
+        <v>344.2999877929688</v>
+      </c>
+      <c r="F259" t="n">
+        <v>344.2999877929688</v>
+      </c>
+      <c r="G259" t="n">
+        <v>22779110</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I259" t="n">
+        <v>9</v>
+      </c>
+      <c r="J259" t="n">
+        <v>11</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>37</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B260" t="n">
+        <v>346.2999877929688</v>
+      </c>
+      <c r="C260" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="D260" t="n">
+        <v>342.2999877929688</v>
+      </c>
+      <c r="E260" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="F260" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="G260" t="n">
+        <v>18880950</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I260" t="n">
+        <v>9</v>
+      </c>
+      <c r="J260" t="n">
+        <v>12</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>37</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B261" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="C261" t="n">
+        <v>354.3999938964844</v>
+      </c>
+      <c r="D261" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="E261" t="n">
+        <v>351.8999938964844</v>
+      </c>
+      <c r="F261" t="n">
+        <v>351.8999938964844</v>
+      </c>
+      <c r="G261" t="n">
+        <v>17606004</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I261" t="n">
+        <v>9</v>
+      </c>
+      <c r="J261" t="n">
+        <v>13</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>37</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R261"/>
+  <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14861,7 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14915,7 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14969,7 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -15023,7 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -15077,7 +15085,279 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B262" t="n">
+        <v>352</v>
+      </c>
+      <c r="C262" t="n">
+        <v>354.7000122070312</v>
+      </c>
+      <c r="D262" t="n">
+        <v>347</v>
+      </c>
+      <c r="E262" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="F262" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="G262" t="n">
+        <v>11639020</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I262" t="n">
+        <v>9</v>
+      </c>
+      <c r="J262" t="n">
+        <v>16</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>38</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B263" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="C263" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>344</v>
+      </c>
+      <c r="E263" t="n">
+        <v>351.6499938964844</v>
+      </c>
+      <c r="F263" t="n">
+        <v>351.6499938964844</v>
+      </c>
+      <c r="G263" t="n">
+        <v>14931440</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I263" t="n">
+        <v>9</v>
+      </c>
+      <c r="J263" t="n">
+        <v>17</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>38</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B264" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="D264" t="n">
+        <v>345.1000061035156</v>
+      </c>
+      <c r="E264" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="F264" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="G264" t="n">
+        <v>12141030</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I264" t="n">
+        <v>9</v>
+      </c>
+      <c r="J264" t="n">
+        <v>18</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>38</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B265" t="n">
+        <v>348.75</v>
+      </c>
+      <c r="C265" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="D265" t="n">
+        <v>338.4500122070312</v>
+      </c>
+      <c r="E265" t="n">
+        <v>346.6499938964844</v>
+      </c>
+      <c r="F265" t="n">
+        <v>346.6499938964844</v>
+      </c>
+      <c r="G265" t="n">
+        <v>17295760</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I265" t="n">
+        <v>9</v>
+      </c>
+      <c r="J265" t="n">
+        <v>19</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>38</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B266" t="n">
+        <v>348.3999938964844</v>
+      </c>
+      <c r="C266" t="n">
+        <v>355.8999938964844</v>
+      </c>
+      <c r="D266" t="n">
+        <v>348.3500061035156</v>
+      </c>
+      <c r="E266" t="n">
+        <v>353.8999938964844</v>
+      </c>
+      <c r="F266" t="n">
+        <v>353.8999938964844</v>
+      </c>
+      <c r="G266" t="n">
+        <v>38444592</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I266" t="n">
+        <v>9</v>
+      </c>
+      <c r="J266" t="n">
+        <v>20</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>38</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R266"/>
+  <dimension ref="A1:R271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15141,7 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -15195,7 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -15249,7 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -15303,7 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -15357,7 +15365,279 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B267" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="C267" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="D267" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="E267" t="n">
+        <v>354.25</v>
+      </c>
+      <c r="F267" t="n">
+        <v>354.25</v>
+      </c>
+      <c r="G267" t="n">
+        <v>22868790</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I267" t="n">
+        <v>9</v>
+      </c>
+      <c r="J267" t="n">
+        <v>23</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>39</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B268" t="n">
+        <v>353.7999877929688</v>
+      </c>
+      <c r="C268" t="n">
+        <v>356</v>
+      </c>
+      <c r="D268" t="n">
+        <v>349.1000061035156</v>
+      </c>
+      <c r="E268" t="n">
+        <v>352.4500122070312</v>
+      </c>
+      <c r="F268" t="n">
+        <v>352.4500122070312</v>
+      </c>
+      <c r="G268" t="n">
+        <v>20086100</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I268" t="n">
+        <v>9</v>
+      </c>
+      <c r="J268" t="n">
+        <v>24</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>39</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B269" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="C269" t="n">
+        <v>355</v>
+      </c>
+      <c r="D269" t="n">
+        <v>349</v>
+      </c>
+      <c r="E269" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="F269" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="G269" t="n">
+        <v>13663030</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I269" t="n">
+        <v>9</v>
+      </c>
+      <c r="J269" t="n">
+        <v>25</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>39</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B270" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="D270" t="n">
+        <v>348.9500122070312</v>
+      </c>
+      <c r="E270" t="n">
+        <v>349.8500061035156</v>
+      </c>
+      <c r="F270" t="n">
+        <v>349.8500061035156</v>
+      </c>
+      <c r="G270" t="n">
+        <v>11584350</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I270" t="n">
+        <v>9</v>
+      </c>
+      <c r="J270" t="n">
+        <v>26</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>39</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B271" t="n">
+        <v>350</v>
+      </c>
+      <c r="C271" t="n">
+        <v>363</v>
+      </c>
+      <c r="D271" t="n">
+        <v>349.1000061035156</v>
+      </c>
+      <c r="E271" t="n">
+        <v>359.1499938964844</v>
+      </c>
+      <c r="F271" t="n">
+        <v>359.1499938964844</v>
+      </c>
+      <c r="G271" t="n">
+        <v>61521186</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I271" t="n">
+        <v>9</v>
+      </c>
+      <c r="J271" t="n">
+        <v>27</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>39</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R271"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15421,7 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -15475,7 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -15529,7 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -15583,7 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -15637,7 +15645,225 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B272" t="n">
+        <v>357</v>
+      </c>
+      <c r="C272" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="D272" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="E272" t="n">
+        <v>350.6000061035156</v>
+      </c>
+      <c r="F272" t="n">
+        <v>350.6000061035156</v>
+      </c>
+      <c r="G272" t="n">
+        <v>26763310</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I272" t="n">
+        <v>9</v>
+      </c>
+      <c r="J272" t="n">
+        <v>30</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>40</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B273" t="n">
+        <v>352</v>
+      </c>
+      <c r="C273" t="n">
+        <v>353</v>
+      </c>
+      <c r="D273" t="n">
+        <v>346.25</v>
+      </c>
+      <c r="E273" t="n">
+        <v>351</v>
+      </c>
+      <c r="F273" t="n">
+        <v>351</v>
+      </c>
+      <c r="G273" t="n">
+        <v>16421560</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>40</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B274" t="n">
+        <v>345</v>
+      </c>
+      <c r="C274" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="D274" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="E274" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="F274" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="G274" t="n">
+        <v>24232870</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I274" t="n">
+        <v>10</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>40</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B275" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="D275" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="F275" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="G275" t="n">
+        <v>18892090</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10</v>
+      </c>
+      <c r="J275" t="n">
+        <v>4</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>40</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R275"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15701,7 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -15755,7 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -15809,7 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15863,7 +15869,279 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B276" t="n">
+        <v>346.1000061035156</v>
+      </c>
+      <c r="C276" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="D276" t="n">
+        <v>329.2000122070312</v>
+      </c>
+      <c r="E276" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="F276" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="G276" t="n">
+        <v>38001800</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10</v>
+      </c>
+      <c r="J276" t="n">
+        <v>7</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>41</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B277" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="C277" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="D277" t="n">
+        <v>333</v>
+      </c>
+      <c r="E277" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="F277" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="G277" t="n">
+        <v>20853380</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10</v>
+      </c>
+      <c r="J277" t="n">
+        <v>8</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>41</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B278" t="n">
+        <v>345</v>
+      </c>
+      <c r="C278" t="n">
+        <v>348</v>
+      </c>
+      <c r="D278" t="n">
+        <v>341.5499877929688</v>
+      </c>
+      <c r="E278" t="n">
+        <v>343</v>
+      </c>
+      <c r="F278" t="n">
+        <v>343</v>
+      </c>
+      <c r="G278" t="n">
+        <v>12692770</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I278" t="n">
+        <v>10</v>
+      </c>
+      <c r="J278" t="n">
+        <v>9</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>41</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B279" t="n">
+        <v>345</v>
+      </c>
+      <c r="C279" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>343</v>
+      </c>
+      <c r="E279" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="F279" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="G279" t="n">
+        <v>8914571</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10</v>
+      </c>
+      <c r="J279" t="n">
+        <v>10</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>41</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B280" t="n">
+        <v>343.4500122070312</v>
+      </c>
+      <c r="C280" t="n">
+        <v>344.4500122070312</v>
+      </c>
+      <c r="D280" t="n">
+        <v>340.4500122070312</v>
+      </c>
+      <c r="E280" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="G280" t="n">
+        <v>8082072</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10</v>
+      </c>
+      <c r="J280" t="n">
+        <v>11</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>41</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R280"/>
+  <dimension ref="A1:R285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15637,7 +15637,7 @@
         <v>39</v>
       </c>
       <c r="O271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P271" t="n">
         <v>0</v>
@@ -15925,7 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15979,7 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -16033,7 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -16087,7 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -16141,7 +16149,279 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B281" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="C281" t="n">
+        <v>343.4500122070312</v>
+      </c>
+      <c r="D281" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="E281" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="F281" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="G281" t="n">
+        <v>7284123</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10</v>
+      </c>
+      <c r="J281" t="n">
+        <v>14</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>42</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B282" t="n">
+        <v>341.9500122070312</v>
+      </c>
+      <c r="C282" t="n">
+        <v>341.9500122070312</v>
+      </c>
+      <c r="D282" t="n">
+        <v>336.1000061035156</v>
+      </c>
+      <c r="E282" t="n">
+        <v>336.75</v>
+      </c>
+      <c r="F282" t="n">
+        <v>336.75</v>
+      </c>
+      <c r="G282" t="n">
+        <v>9425660</v>
+      </c>
+      <c r="H282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10</v>
+      </c>
+      <c r="J282" t="n">
+        <v>15</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>42</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B283" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="C283" t="n">
+        <v>339.2000122070312</v>
+      </c>
+      <c r="D283" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="F283" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="G283" t="n">
+        <v>10530770</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I283" t="n">
+        <v>10</v>
+      </c>
+      <c r="J283" t="n">
+        <v>16</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>42</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B284" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="C284" t="n">
+        <v>335</v>
+      </c>
+      <c r="D284" t="n">
+        <v>328.6000061035156</v>
+      </c>
+      <c r="E284" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="F284" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="G284" t="n">
+        <v>9765396</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10</v>
+      </c>
+      <c r="J284" t="n">
+        <v>17</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>42</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B285" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="C285" t="n">
+        <v>332.8999938964844</v>
+      </c>
+      <c r="D285" t="n">
+        <v>325.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>330.3500061035156</v>
+      </c>
+      <c r="F285" t="n">
+        <v>330.3500061035156</v>
+      </c>
+      <c r="G285" t="n">
+        <v>9734079</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10</v>
+      </c>
+      <c r="J285" t="n">
+        <v>18</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>42</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R285"/>
+  <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16205,7 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -16259,7 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -16313,7 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -16367,7 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -16421,7 +16429,279 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B286" t="n">
+        <v>334.3999938964844</v>
+      </c>
+      <c r="C286" t="n">
+        <v>334.3999938964844</v>
+      </c>
+      <c r="D286" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="E286" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="F286" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="G286" t="n">
+        <v>8404918</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10</v>
+      </c>
+      <c r="J286" t="n">
+        <v>21</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>43</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B287" t="n">
+        <v>328</v>
+      </c>
+      <c r="C287" t="n">
+        <v>328.3999938964844</v>
+      </c>
+      <c r="D287" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="E287" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="F287" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="G287" t="n">
+        <v>16864960</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I287" t="n">
+        <v>10</v>
+      </c>
+      <c r="J287" t="n">
+        <v>22</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>43</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B288" t="n">
+        <v>316.25</v>
+      </c>
+      <c r="C288" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="D288" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="E288" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="F288" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="G288" t="n">
+        <v>15298130</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I288" t="n">
+        <v>10</v>
+      </c>
+      <c r="J288" t="n">
+        <v>23</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>43</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B289" t="n">
+        <v>315</v>
+      </c>
+      <c r="C289" t="n">
+        <v>318.3999938964844</v>
+      </c>
+      <c r="D289" t="n">
+        <v>314.8500061035156</v>
+      </c>
+      <c r="E289" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="F289" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="G289" t="n">
+        <v>7628619</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I289" t="n">
+        <v>10</v>
+      </c>
+      <c r="J289" t="n">
+        <v>24</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>43</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B290" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="C290" t="n">
+        <v>317.8500061035156</v>
+      </c>
+      <c r="D290" t="n">
+        <v>306</v>
+      </c>
+      <c r="E290" t="n">
+        <v>311.2000122070312</v>
+      </c>
+      <c r="F290" t="n">
+        <v>311.2000122070312</v>
+      </c>
+      <c r="G290" t="n">
+        <v>12396119</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I290" t="n">
+        <v>10</v>
+      </c>
+      <c r="J290" t="n">
+        <v>25</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>43</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R290"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16485,7 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -16539,7 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -16593,7 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -16647,7 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -16701,7 +16709,225 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B291" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>319.25</v>
+      </c>
+      <c r="D291" t="n">
+        <v>310.6499938964844</v>
+      </c>
+      <c r="E291" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="F291" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="G291" t="n">
+        <v>9290007</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I291" t="n">
+        <v>10</v>
+      </c>
+      <c r="J291" t="n">
+        <v>28</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>44</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B292" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="C292" t="n">
+        <v>326.9500122070312</v>
+      </c>
+      <c r="D292" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="E292" t="n">
+        <v>326.2000122070312</v>
+      </c>
+      <c r="F292" t="n">
+        <v>326.2000122070312</v>
+      </c>
+      <c r="G292" t="n">
+        <v>14904510</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I292" t="n">
+        <v>10</v>
+      </c>
+      <c r="J292" t="n">
+        <v>29</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>44</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B293" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="C293" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="D293" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="E293" t="n">
+        <v>322.2999877929688</v>
+      </c>
+      <c r="F293" t="n">
+        <v>322.2999877929688</v>
+      </c>
+      <c r="G293" t="n">
+        <v>6666478</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I293" t="n">
+        <v>10</v>
+      </c>
+      <c r="J293" t="n">
+        <v>31</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>44</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B294" t="n">
+        <v>325</v>
+      </c>
+      <c r="C294" t="n">
+        <v>326.8500061035156</v>
+      </c>
+      <c r="D294" t="n">
+        <v>324.2000122070312</v>
+      </c>
+      <c r="E294" t="n">
+        <v>326.2000122070312</v>
+      </c>
+      <c r="F294" t="n">
+        <v>326.2000122070312</v>
+      </c>
+      <c r="G294" t="n">
+        <v>3646103</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>44</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16765,7 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -16819,7 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -16873,7 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16927,7 +16933,225 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B295" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="C295" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="D295" t="n">
+        <v>319.2999877929688</v>
+      </c>
+      <c r="E295" t="n">
+        <v>319.8500061035156</v>
+      </c>
+      <c r="F295" t="n">
+        <v>319.8500061035156</v>
+      </c>
+      <c r="G295" t="n">
+        <v>8097386</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11</v>
+      </c>
+      <c r="J295" t="n">
+        <v>4</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>45</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B296" t="n">
+        <v>323.9500122070312</v>
+      </c>
+      <c r="C296" t="n">
+        <v>327.8999938964844</v>
+      </c>
+      <c r="D296" t="n">
+        <v>322.7999877929688</v>
+      </c>
+      <c r="E296" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="F296" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="G296" t="n">
+        <v>7203398</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11</v>
+      </c>
+      <c r="J296" t="n">
+        <v>6</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>45</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B297" t="n">
+        <v>327</v>
+      </c>
+      <c r="C297" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>320.5499877929688</v>
+      </c>
+      <c r="E297" t="n">
+        <v>321.5499877929688</v>
+      </c>
+      <c r="F297" t="n">
+        <v>321.5499877929688</v>
+      </c>
+      <c r="G297" t="n">
+        <v>7046798</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11</v>
+      </c>
+      <c r="J297" t="n">
+        <v>7</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>45</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B298" t="n">
+        <v>321.7000122070312</v>
+      </c>
+      <c r="C298" t="n">
+        <v>322.3500061035156</v>
+      </c>
+      <c r="D298" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="E298" t="n">
+        <v>316.0499877929688</v>
+      </c>
+      <c r="F298" t="n">
+        <v>316.0499877929688</v>
+      </c>
+      <c r="G298" t="n">
+        <v>7863721</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I298" t="n">
+        <v>11</v>
+      </c>
+      <c r="J298" t="n">
+        <v>8</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>45</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R298"/>
+  <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16701,7 +16701,7 @@
         <v>43</v>
       </c>
       <c r="O290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P290" t="n">
         <v>0</v>
@@ -16989,7 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -17043,7 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -17097,7 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -17151,7 +17157,225 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B299" t="n">
+        <v>314</v>
+      </c>
+      <c r="C299" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="D299" t="n">
+        <v>310.6000061035156</v>
+      </c>
+      <c r="E299" t="n">
+        <v>312</v>
+      </c>
+      <c r="F299" t="n">
+        <v>312</v>
+      </c>
+      <c r="G299" t="n">
+        <v>8429474</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11</v>
+      </c>
+      <c r="J299" t="n">
+        <v>11</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>46</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B300" t="n">
+        <v>312.2000122070312</v>
+      </c>
+      <c r="C300" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="D300" t="n">
+        <v>310</v>
+      </c>
+      <c r="E300" t="n">
+        <v>310.25</v>
+      </c>
+      <c r="F300" t="n">
+        <v>310.25</v>
+      </c>
+      <c r="G300" t="n">
+        <v>5765828</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11</v>
+      </c>
+      <c r="J300" t="n">
+        <v>12</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>46</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B301" t="n">
+        <v>310</v>
+      </c>
+      <c r="C301" t="n">
+        <v>310</v>
+      </c>
+      <c r="D301" t="n">
+        <v>298</v>
+      </c>
+      <c r="E301" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="F301" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="G301" t="n">
+        <v>14563480</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11</v>
+      </c>
+      <c r="J301" t="n">
+        <v>13</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>46</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B302" t="n">
+        <v>302.75</v>
+      </c>
+      <c r="C302" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="D302" t="n">
+        <v>302.75</v>
+      </c>
+      <c r="E302" t="n">
+        <v>318.3500061035156</v>
+      </c>
+      <c r="F302" t="n">
+        <v>318.3500061035156</v>
+      </c>
+      <c r="G302" t="n">
+        <v>42750070</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11</v>
+      </c>
+      <c r="J302" t="n">
+        <v>14</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>46</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:R306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17213,7 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -17267,7 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -17321,7 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -17375,7 +17381,225 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B303" t="n">
+        <v>320</v>
+      </c>
+      <c r="C303" t="n">
+        <v>322.8999938964844</v>
+      </c>
+      <c r="D303" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="E303" t="n">
+        <v>318.7999877929688</v>
+      </c>
+      <c r="F303" t="n">
+        <v>318.7999877929688</v>
+      </c>
+      <c r="G303" t="n">
+        <v>15570300</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11</v>
+      </c>
+      <c r="J303" t="n">
+        <v>18</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>47</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B304" t="n">
+        <v>320</v>
+      </c>
+      <c r="C304" t="n">
+        <v>323.7999877929688</v>
+      </c>
+      <c r="D304" t="n">
+        <v>317.1000061035156</v>
+      </c>
+      <c r="E304" t="n">
+        <v>319.3500061035156</v>
+      </c>
+      <c r="F304" t="n">
+        <v>319.3500061035156</v>
+      </c>
+      <c r="G304" t="n">
+        <v>9800376</v>
+      </c>
+      <c r="H304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I304" t="n">
+        <v>11</v>
+      </c>
+      <c r="J304" t="n">
+        <v>19</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>47</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B305" t="n">
+        <v>317</v>
+      </c>
+      <c r="C305" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="D305" t="n">
+        <v>313.0499877929688</v>
+      </c>
+      <c r="E305" t="n">
+        <v>314.2000122070312</v>
+      </c>
+      <c r="F305" t="n">
+        <v>314.2000122070312</v>
+      </c>
+      <c r="G305" t="n">
+        <v>9585103</v>
+      </c>
+      <c r="H305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I305" t="n">
+        <v>11</v>
+      </c>
+      <c r="J305" t="n">
+        <v>21</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>47</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B306" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="C306" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="D306" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="E306" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F306" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="G306" t="n">
+        <v>11352981</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I306" t="n">
+        <v>11</v>
+      </c>
+      <c r="J306" t="n">
+        <v>22</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>47</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R306"/>
+  <dimension ref="A1:R311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17093,7 +17093,7 @@
         <v>45</v>
       </c>
       <c r="O297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P297" t="n">
         <v>0</v>
@@ -17317,7 +17317,7 @@
         <v>46</v>
       </c>
       <c r="O301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P301" t="n">
         <v>1</v>
@@ -17437,7 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -17491,7 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -17545,7 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -17599,7 +17605,279 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B307" t="n">
+        <v>318.8500061035156</v>
+      </c>
+      <c r="C307" t="n">
+        <v>325</v>
+      </c>
+      <c r="D307" t="n">
+        <v>318</v>
+      </c>
+      <c r="E307" t="n">
+        <v>323.25</v>
+      </c>
+      <c r="F307" t="n">
+        <v>323.25</v>
+      </c>
+      <c r="G307" t="n">
+        <v>25530710</v>
+      </c>
+      <c r="H307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I307" t="n">
+        <v>11</v>
+      </c>
+      <c r="J307" t="n">
+        <v>25</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>48</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B308" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="C308" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="D308" t="n">
+        <v>320.1000061035156</v>
+      </c>
+      <c r="E308" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="F308" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="G308" t="n">
+        <v>11006010</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I308" t="n">
+        <v>11</v>
+      </c>
+      <c r="J308" t="n">
+        <v>26</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>48</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B309" t="n">
+        <v>325.7000122070312</v>
+      </c>
+      <c r="C309" t="n">
+        <v>331.9500122070312</v>
+      </c>
+      <c r="D309" t="n">
+        <v>322.3999938964844</v>
+      </c>
+      <c r="E309" t="n">
+        <v>328.8999938964844</v>
+      </c>
+      <c r="F309" t="n">
+        <v>328.8999938964844</v>
+      </c>
+      <c r="G309" t="n">
+        <v>11501640</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I309" t="n">
+        <v>11</v>
+      </c>
+      <c r="J309" t="n">
+        <v>27</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>48</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B310" t="n">
+        <v>328.9500122070312</v>
+      </c>
+      <c r="C310" t="n">
+        <v>331.3999938964844</v>
+      </c>
+      <c r="D310" t="n">
+        <v>325</v>
+      </c>
+      <c r="E310" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="F310" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="G310" t="n">
+        <v>9679906</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I310" t="n">
+        <v>11</v>
+      </c>
+      <c r="J310" t="n">
+        <v>28</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>48</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B311" t="n">
+        <v>325.5499877929688</v>
+      </c>
+      <c r="C311" t="n">
+        <v>332.2999877929688</v>
+      </c>
+      <c r="D311" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="E311" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="F311" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="G311" t="n">
+        <v>18279167</v>
+      </c>
+      <c r="H311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I311" t="n">
+        <v>11</v>
+      </c>
+      <c r="J311" t="n">
+        <v>29</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>48</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R311"/>
+  <dimension ref="A1:R316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17661,7 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -17715,7 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -17769,7 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -17823,7 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -17877,7 +17885,279 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B312" t="n">
+        <v>326</v>
+      </c>
+      <c r="C312" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>325.1000061035156</v>
+      </c>
+      <c r="E312" t="n">
+        <v>329.7000122070312</v>
+      </c>
+      <c r="F312" t="n">
+        <v>329.7000122070312</v>
+      </c>
+      <c r="G312" t="n">
+        <v>8216182</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I312" t="n">
+        <v>12</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>49</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B313" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="C313" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="D313" t="n">
+        <v>329.8500061035156</v>
+      </c>
+      <c r="E313" t="n">
+        <v>340.3500061035156</v>
+      </c>
+      <c r="F313" t="n">
+        <v>340.3500061035156</v>
+      </c>
+      <c r="G313" t="n">
+        <v>18445720</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I313" t="n">
+        <v>12</v>
+      </c>
+      <c r="J313" t="n">
+        <v>3</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>49</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B314" t="n">
+        <v>342.1000061035156</v>
+      </c>
+      <c r="C314" t="n">
+        <v>347.3500061035156</v>
+      </c>
+      <c r="D314" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="E314" t="n">
+        <v>345.2000122070312</v>
+      </c>
+      <c r="F314" t="n">
+        <v>345.2000122070312</v>
+      </c>
+      <c r="G314" t="n">
+        <v>16774990</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I314" t="n">
+        <v>12</v>
+      </c>
+      <c r="J314" t="n">
+        <v>4</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>49</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B315" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="C315" t="n">
+        <v>347.2999877929688</v>
+      </c>
+      <c r="D315" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="E315" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="G315" t="n">
+        <v>11818450</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I315" t="n">
+        <v>12</v>
+      </c>
+      <c r="J315" t="n">
+        <v>5</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>49</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B316" t="n">
+        <v>343.0499877929688</v>
+      </c>
+      <c r="C316" t="n">
+        <v>343.0499877929688</v>
+      </c>
+      <c r="D316" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="E316" t="n">
+        <v>338.8999938964844</v>
+      </c>
+      <c r="F316" t="n">
+        <v>338.8999938964844</v>
+      </c>
+      <c r="G316" t="n">
+        <v>8061741</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I316" t="n">
+        <v>12</v>
+      </c>
+      <c r="J316" t="n">
+        <v>6</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>49</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R316"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17941,7 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17995,7 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -18041,7 +18045,7 @@
         <v>49</v>
       </c>
       <c r="O314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P314" t="n">
         <v>0</v>
@@ -18049,7 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -18103,7 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
-      <c r="R315" t="inlineStr"/>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -18157,7 +18165,441 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B317" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="C317" t="n">
+        <v>341.2999877929688</v>
+      </c>
+      <c r="D317" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="E317" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="F317" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="G317" t="n">
+        <v>10589890</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I317" t="n">
+        <v>12</v>
+      </c>
+      <c r="J317" t="n">
+        <v>9</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>50</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B318" t="n">
+        <v>337</v>
+      </c>
+      <c r="C318" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D318" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="E318" t="n">
+        <v>335.1000061035156</v>
+      </c>
+      <c r="F318" t="n">
+        <v>335.1000061035156</v>
+      </c>
+      <c r="G318" t="n">
+        <v>7366133</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I318" t="n">
+        <v>12</v>
+      </c>
+      <c r="J318" t="n">
+        <v>10</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>50</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B319" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="C319" t="n">
+        <v>345</v>
+      </c>
+      <c r="D319" t="n">
+        <v>333.2999877929688</v>
+      </c>
+      <c r="E319" t="n">
+        <v>343</v>
+      </c>
+      <c r="F319" t="n">
+        <v>343</v>
+      </c>
+      <c r="G319" t="n">
+        <v>20098920</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I319" t="n">
+        <v>12</v>
+      </c>
+      <c r="J319" t="n">
+        <v>11</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>50</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B320" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="C320" t="n">
+        <v>346.2999877929688</v>
+      </c>
+      <c r="D320" t="n">
+        <v>337.2000122070312</v>
+      </c>
+      <c r="E320" t="n">
+        <v>338.2999877929688</v>
+      </c>
+      <c r="F320" t="n">
+        <v>338.2999877929688</v>
+      </c>
+      <c r="G320" t="n">
+        <v>10639640</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I320" t="n">
+        <v>12</v>
+      </c>
+      <c r="J320" t="n">
+        <v>12</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>50</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B321" t="n">
+        <v>337</v>
+      </c>
+      <c r="C321" t="n">
+        <v>340.7000122070312</v>
+      </c>
+      <c r="D321" t="n">
+        <v>330.6499938964844</v>
+      </c>
+      <c r="E321" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="F321" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="G321" t="n">
+        <v>9126606</v>
+      </c>
+      <c r="H321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I321" t="n">
+        <v>12</v>
+      </c>
+      <c r="J321" t="n">
+        <v>13</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>50</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B322" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="C322" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="D322" t="n">
+        <v>338.1499938964844</v>
+      </c>
+      <c r="E322" t="n">
+        <v>340.3500061035156</v>
+      </c>
+      <c r="F322" t="n">
+        <v>340.3500061035156</v>
+      </c>
+      <c r="G322" t="n">
+        <v>6632276</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I322" t="n">
+        <v>12</v>
+      </c>
+      <c r="J322" t="n">
+        <v>16</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>51</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B323" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="C323" t="n">
+        <v>340.8999938964844</v>
+      </c>
+      <c r="D323" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="E323" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="F323" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="G323" t="n">
+        <v>8027327</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I323" t="n">
+        <v>12</v>
+      </c>
+      <c r="J323" t="n">
+        <v>17</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>51</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B324" t="n">
+        <v>336</v>
+      </c>
+      <c r="C324" t="n">
+        <v>337</v>
+      </c>
+      <c r="D324" t="n">
+        <v>323.5499877929688</v>
+      </c>
+      <c r="E324" t="n">
+        <v>324.6000061035156</v>
+      </c>
+      <c r="F324" t="n">
+        <v>324.6000061035156</v>
+      </c>
+      <c r="G324" t="n">
+        <v>13945890</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I324" t="n">
+        <v>12</v>
+      </c>
+      <c r="J324" t="n">
+        <v>18</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>51</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R324"/>
+  <dimension ref="A1:R330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18221,7 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -18275,7 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -18329,7 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -18383,7 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
-      <c r="R320" t="inlineStr"/>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -18437,7 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -18491,7 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
-      <c r="R322" t="inlineStr"/>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -18545,7 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
-      <c r="R323" t="inlineStr"/>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -18599,7 +18613,321 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B325" t="n">
+        <v>318</v>
+      </c>
+      <c r="C325" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="D325" t="n">
+        <v>310.75</v>
+      </c>
+      <c r="E325" t="n">
+        <v>313</v>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="n">
+        <v>21490550</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I325" t="n">
+        <v>12</v>
+      </c>
+      <c r="J325" t="n">
+        <v>19</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>51</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B326" t="n">
+        <v>314.75</v>
+      </c>
+      <c r="C326" t="n">
+        <v>314.75</v>
+      </c>
+      <c r="D326" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="E326" t="n">
+        <v>304.2999877929688</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="n">
+        <v>19669660</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I326" t="n">
+        <v>12</v>
+      </c>
+      <c r="J326" t="n">
+        <v>20</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>51</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B327" t="n">
+        <v>308.7999877929688</v>
+      </c>
+      <c r="C327" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="D327" t="n">
+        <v>302.0499877929688</v>
+      </c>
+      <c r="E327" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="n">
+        <v>11299660</v>
+      </c>
+      <c r="H327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I327" t="n">
+        <v>12</v>
+      </c>
+      <c r="J327" t="n">
+        <v>23</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>52</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B328" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="C328" t="n">
+        <v>307</v>
+      </c>
+      <c r="D328" t="n">
+        <v>303.6000061035156</v>
+      </c>
+      <c r="E328" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="n">
+        <v>6911511</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I328" t="n">
+        <v>12</v>
+      </c>
+      <c r="J328" t="n">
+        <v>24</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>52</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B329" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="C329" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="D329" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="E329" t="n">
+        <v>305.5499877929688</v>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="n">
+        <v>8189884</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I329" t="n">
+        <v>12</v>
+      </c>
+      <c r="J329" t="n">
+        <v>26</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>52</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B330" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="C330" t="n">
+        <v>307.3500061035156</v>
+      </c>
+      <c r="D330" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="E330" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="n">
+        <v>6010355</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I330" t="n">
+        <v>12</v>
+      </c>
+      <c r="J330" t="n">
+        <v>27</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>52</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R330"/>
+  <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18667,7 +18667,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -18719,7 +18721,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
-      <c r="R326" t="inlineStr"/>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -18771,7 +18775,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
-      <c r="R327" t="inlineStr"/>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -18823,7 +18829,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
-      <c r="R328" t="inlineStr"/>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -18875,7 +18883,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
-      <c r="R329" t="inlineStr"/>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -18927,7 +18937,269 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
-      <c r="R330" t="inlineStr"/>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B331" t="n">
+        <v>305</v>
+      </c>
+      <c r="C331" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="D331" t="n">
+        <v>301</v>
+      </c>
+      <c r="E331" t="n">
+        <v>306.25</v>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="n">
+        <v>45642150</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I331" t="n">
+        <v>12</v>
+      </c>
+      <c r="J331" t="n">
+        <v>30</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>1</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B332" t="n">
+        <v>303.8500061035156</v>
+      </c>
+      <c r="C332" t="n">
+        <v>303.8500061035156</v>
+      </c>
+      <c r="D332" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="E332" t="n">
+        <v>298.7000122070312</v>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="n">
+        <v>17838910</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I332" t="n">
+        <v>12</v>
+      </c>
+      <c r="J332" t="n">
+        <v>31</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B333" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="C333" t="n">
+        <v>306.3999938964844</v>
+      </c>
+      <c r="D333" t="n">
+        <v>298.7999877929688</v>
+      </c>
+      <c r="E333" t="n">
+        <v>304.4500122070312</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="n">
+        <v>8948678</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>1</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B334" t="n">
+        <v>306</v>
+      </c>
+      <c r="C334" t="n">
+        <v>307</v>
+      </c>
+      <c r="D334" t="n">
+        <v>303.3500061035156</v>
+      </c>
+      <c r="E334" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="n">
+        <v>18554110</v>
+      </c>
+      <c r="H334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>2</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B335" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="C335" t="n">
+        <v>310.8999938964844</v>
+      </c>
+      <c r="D335" t="n">
+        <v>304.25</v>
+      </c>
+      <c r="E335" t="n">
+        <v>307.4500122070312</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="n">
+        <v>25268056</v>
+      </c>
+      <c r="H335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" t="n">
+        <v>3</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R335"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18991,7 +18991,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
-      <c r="R331" t="inlineStr"/>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -19043,7 +19045,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
-      <c r="R332" t="inlineStr"/>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -19095,7 +19099,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
-      <c r="R333" t="inlineStr"/>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -19147,7 +19153,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
-      <c r="R334" t="inlineStr"/>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -19199,7 +19207,269 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
-      <c r="R335" t="inlineStr"/>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B336" t="n">
+        <v>307.7000122070312</v>
+      </c>
+      <c r="C336" t="n">
+        <v>308.4500122070312</v>
+      </c>
+      <c r="D336" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="E336" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>15616960</v>
+      </c>
+      <c r="H336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>6</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>2</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B337" t="n">
+        <v>298</v>
+      </c>
+      <c r="C337" t="n">
+        <v>301</v>
+      </c>
+      <c r="D337" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="E337" t="n">
+        <v>299.1499938964844</v>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="n">
+        <v>8305881</v>
+      </c>
+      <c r="H337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>7</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B338" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="C338" t="n">
+        <v>300.8500061035156</v>
+      </c>
+      <c r="D338" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="E338" t="n">
+        <v>298.6000061035156</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="n">
+        <v>10545440</v>
+      </c>
+      <c r="H338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>8</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>2</v>
+      </c>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B339" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="C339" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="D339" t="n">
+        <v>288.7999877929688</v>
+      </c>
+      <c r="E339" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="n">
+        <v>15072300</v>
+      </c>
+      <c r="H339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>9</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>2</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B340" t="n">
+        <v>290</v>
+      </c>
+      <c r="C340" t="n">
+        <v>290.9500122070312</v>
+      </c>
+      <c r="D340" t="n">
+        <v>280</v>
+      </c>
+      <c r="E340" t="n">
+        <v>280.5499877929688</v>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>13870929</v>
+      </c>
+      <c r="H340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>10</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>2</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19261,7 +19261,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
-      <c r="R336" t="inlineStr"/>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -19313,7 +19315,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
-      <c r="R337" t="inlineStr"/>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -19365,7 +19369,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
-      <c r="R338" t="inlineStr"/>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -19417,7 +19423,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
-      <c r="R339" t="inlineStr"/>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -19469,7 +19477,269 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
-      <c r="R340" t="inlineStr"/>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B341" t="n">
+        <v>277.7999877929688</v>
+      </c>
+      <c r="C341" t="n">
+        <v>278</v>
+      </c>
+      <c r="D341" t="n">
+        <v>265.0499877929688</v>
+      </c>
+      <c r="E341" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="n">
+        <v>22870940</v>
+      </c>
+      <c r="H341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>13</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>3</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B342" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="C342" t="n">
+        <v>274</v>
+      </c>
+      <c r="D342" t="n">
+        <v>264.2000122070312</v>
+      </c>
+      <c r="E342" t="n">
+        <v>272.8500061035156</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="n">
+        <v>19834730</v>
+      </c>
+      <c r="H342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>14</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>3</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B343" t="n">
+        <v>275</v>
+      </c>
+      <c r="C343" t="n">
+        <v>276</v>
+      </c>
+      <c r="D343" t="n">
+        <v>271.25</v>
+      </c>
+      <c r="E343" t="n">
+        <v>272.3999938964844</v>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="n">
+        <v>12932860</v>
+      </c>
+      <c r="H343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>15</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>3</v>
+      </c>
+      <c r="O343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B344" t="n">
+        <v>277</v>
+      </c>
+      <c r="C344" t="n">
+        <v>278.7999877929688</v>
+      </c>
+      <c r="D344" t="n">
+        <v>274.8500061035156</v>
+      </c>
+      <c r="E344" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="n">
+        <v>9804897</v>
+      </c>
+      <c r="H344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1</v>
+      </c>
+      <c r="J344" t="n">
+        <v>16</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>3</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B345" t="n">
+        <v>280</v>
+      </c>
+      <c r="C345" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="D345" t="n">
+        <v>275.7000122070312</v>
+      </c>
+      <c r="E345" t="n">
+        <v>279</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="n">
+        <v>12869034</v>
+      </c>
+      <c r="H345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>17</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>3</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R345"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19531,7 +19531,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
-      <c r="R341" t="inlineStr"/>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -19583,7 +19585,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
-      <c r="R342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -19635,7 +19639,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
-      <c r="R343" t="inlineStr"/>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -19687,7 +19693,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
-      <c r="R344" t="inlineStr"/>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -19739,7 +19747,269 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
-      <c r="R345" t="inlineStr"/>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B346" t="n">
+        <v>279</v>
+      </c>
+      <c r="C346" t="n">
+        <v>280</v>
+      </c>
+      <c r="D346" t="n">
+        <v>271.1499938964844</v>
+      </c>
+      <c r="E346" t="n">
+        <v>275.7000122070312</v>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="n">
+        <v>15616620</v>
+      </c>
+      <c r="H346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1</v>
+      </c>
+      <c r="J346" t="n">
+        <v>20</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>4</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B347" t="n">
+        <v>276</v>
+      </c>
+      <c r="C347" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="D347" t="n">
+        <v>258.3999938964844</v>
+      </c>
+      <c r="E347" t="n">
+        <v>260.1000061035156</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="n">
+        <v>25289890</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1</v>
+      </c>
+      <c r="J347" t="n">
+        <v>21</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>4</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B348" t="n">
+        <v>261.7000122070312</v>
+      </c>
+      <c r="C348" t="n">
+        <v>263.6000061035156</v>
+      </c>
+      <c r="D348" t="n">
+        <v>254.0500030517578</v>
+      </c>
+      <c r="E348" t="n">
+        <v>262.7999877929688</v>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="n">
+        <v>19045790</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
+      </c>
+      <c r="J348" t="n">
+        <v>22</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>4</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B349" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="C349" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="D349" t="n">
+        <v>253.6000061035156</v>
+      </c>
+      <c r="E349" t="n">
+        <v>255.8500061035156</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="n">
+        <v>26848850</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>23</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>4</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B350" t="n">
+        <v>256</v>
+      </c>
+      <c r="C350" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="D350" t="n">
+        <v>243.5500030517578</v>
+      </c>
+      <c r="E350" t="n">
+        <v>244.4499969482422</v>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="n">
+        <v>38361114</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>24</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>4</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19801,7 +19801,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
-      <c r="R346" t="inlineStr"/>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -19853,7 +19855,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
-      <c r="R347" t="inlineStr"/>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -19905,7 +19909,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
-      <c r="R348" t="inlineStr"/>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -19957,7 +19963,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
-      <c r="R349" t="inlineStr"/>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -20009,7 +20017,269 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
-      <c r="R350" t="inlineStr"/>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B351" t="n">
+        <v>243</v>
+      </c>
+      <c r="C351" t="n">
+        <v>243.3999938964844</v>
+      </c>
+      <c r="D351" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="E351" t="n">
+        <v>233.3000030517578</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="n">
+        <v>32924180</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1</v>
+      </c>
+      <c r="J351" t="n">
+        <v>27</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>5</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B352" t="n">
+        <v>237</v>
+      </c>
+      <c r="C352" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="D352" t="n">
+        <v>231.3000030517578</v>
+      </c>
+      <c r="E352" t="n">
+        <v>233.3999938964844</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="n">
+        <v>32439610</v>
+      </c>
+      <c r="H352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>28</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>5</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B353" t="n">
+        <v>235</v>
+      </c>
+      <c r="C353" t="n">
+        <v>240.6499938964844</v>
+      </c>
+      <c r="D353" t="n">
+        <v>233</v>
+      </c>
+      <c r="E353" t="n">
+        <v>238.3000030517578</v>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="n">
+        <v>23719430</v>
+      </c>
+      <c r="H353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1</v>
+      </c>
+      <c r="J353" t="n">
+        <v>29</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>5</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B354" t="n">
+        <v>240.6499938964844</v>
+      </c>
+      <c r="C354" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="D354" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="E354" t="n">
+        <v>234.8000030517578</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="n">
+        <v>27503910</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>30</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>5</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B355" t="n">
+        <v>237</v>
+      </c>
+      <c r="C355" t="n">
+        <v>243.75</v>
+      </c>
+      <c r="D355" t="n">
+        <v>235.8000030517578</v>
+      </c>
+      <c r="E355" t="n">
+        <v>241.6499938964844</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="n">
+        <v>31128573</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>31</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>5</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20063,7 +20063,7 @@
         <v>5</v>
       </c>
       <c r="O351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P351" t="n">
         <v>0</v>
@@ -20071,7 +20071,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
-      <c r="R351" t="inlineStr"/>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -20123,7 +20125,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
-      <c r="R352" t="inlineStr"/>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -20175,7 +20179,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
-      <c r="R353" t="inlineStr"/>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -20227,7 +20233,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
-      <c r="R354" t="inlineStr"/>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -20279,7 +20287,321 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
-      <c r="R355" t="inlineStr"/>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B356" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="C356" t="n">
+        <v>245.5500030517578</v>
+      </c>
+      <c r="D356" t="n">
+        <v>239.25</v>
+      </c>
+      <c r="E356" t="n">
+        <v>241.5099945068359</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>24079790</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I356" t="n">
+        <v>2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>5</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B357" t="n">
+        <v>239</v>
+      </c>
+      <c r="C357" t="n">
+        <v>239.5599975585938</v>
+      </c>
+      <c r="D357" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="E357" t="n">
+        <v>233.9700012207031</v>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="n">
+        <v>15183090</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I357" t="n">
+        <v>2</v>
+      </c>
+      <c r="J357" t="n">
+        <v>3</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>6</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B358" t="n">
+        <v>236.3999938964844</v>
+      </c>
+      <c r="C358" t="n">
+        <v>246.9499969482422</v>
+      </c>
+      <c r="D358" t="n">
+        <v>235</v>
+      </c>
+      <c r="E358" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="n">
+        <v>23138560</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I358" t="n">
+        <v>2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>4</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>6</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B359" t="n">
+        <v>246.6499938964844</v>
+      </c>
+      <c r="C359" t="n">
+        <v>254.3399963378906</v>
+      </c>
+      <c r="D359" t="n">
+        <v>246.6000061035156</v>
+      </c>
+      <c r="E359" t="n">
+        <v>249.8200073242188</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="n">
+        <v>28695520</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I359" t="n">
+        <v>2</v>
+      </c>
+      <c r="J359" t="n">
+        <v>5</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>6</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B360" t="n">
+        <v>252.6000061035156</v>
+      </c>
+      <c r="C360" t="n">
+        <v>253.7899932861328</v>
+      </c>
+      <c r="D360" t="n">
+        <v>248.6499938964844</v>
+      </c>
+      <c r="E360" t="n">
+        <v>250.4799957275391</v>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="n">
+        <v>16298230</v>
+      </c>
+      <c r="H360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2</v>
+      </c>
+      <c r="J360" t="n">
+        <v>6</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>6</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B361" t="n">
+        <v>248.3999938964844</v>
+      </c>
+      <c r="C361" t="n">
+        <v>252.75</v>
+      </c>
+      <c r="D361" t="n">
+        <v>246.1300048828125</v>
+      </c>
+      <c r="E361" t="n">
+        <v>249.4499969482422</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="n">
+        <v>11908218</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2</v>
+      </c>
+      <c r="J361" t="n">
+        <v>7</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>6</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R361"/>
+  <dimension ref="A1:R366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20341,7 +20341,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
-      <c r="R356" t="inlineStr"/>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -20393,7 +20395,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
-      <c r="R357" t="inlineStr"/>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -20445,7 +20449,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
-      <c r="R358" t="inlineStr"/>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -20497,7 +20503,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
-      <c r="R359" t="inlineStr"/>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -20549,7 +20557,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
-      <c r="R360" t="inlineStr"/>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -20601,7 +20611,269 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
-      <c r="R361" t="inlineStr"/>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B362" t="n">
+        <v>249.2799987792969</v>
+      </c>
+      <c r="C362" t="n">
+        <v>250</v>
+      </c>
+      <c r="D362" t="n">
+        <v>242.0599975585938</v>
+      </c>
+      <c r="E362" t="n">
+        <v>242.9600067138672</v>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>11175490</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I362" t="n">
+        <v>2</v>
+      </c>
+      <c r="J362" t="n">
+        <v>10</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>7</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B363" t="n">
+        <v>242</v>
+      </c>
+      <c r="C363" t="n">
+        <v>243.1799926757812</v>
+      </c>
+      <c r="D363" t="n">
+        <v>234.75</v>
+      </c>
+      <c r="E363" t="n">
+        <v>235.9400024414062</v>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="n">
+        <v>15330320</v>
+      </c>
+      <c r="H363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2</v>
+      </c>
+      <c r="J363" t="n">
+        <v>11</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>7</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B364" t="n">
+        <v>233</v>
+      </c>
+      <c r="C364" t="n">
+        <v>233.9799957275391</v>
+      </c>
+      <c r="D364" t="n">
+        <v>223.2299957275391</v>
+      </c>
+      <c r="E364" t="n">
+        <v>227.6199951171875</v>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="n">
+        <v>45167990</v>
+      </c>
+      <c r="H364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I364" t="n">
+        <v>2</v>
+      </c>
+      <c r="J364" t="n">
+        <v>12</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>7</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B365" t="n">
+        <v>228.1799926757812</v>
+      </c>
+      <c r="C365" t="n">
+        <v>233.0500030517578</v>
+      </c>
+      <c r="D365" t="n">
+        <v>227</v>
+      </c>
+      <c r="E365" t="n">
+        <v>228.0599975585938</v>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="n">
+        <v>15841470</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I365" t="n">
+        <v>2</v>
+      </c>
+      <c r="J365" t="n">
+        <v>13</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>7</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B366" t="n">
+        <v>230</v>
+      </c>
+      <c r="C366" t="n">
+        <v>230.8399963378906</v>
+      </c>
+      <c r="D366" t="n">
+        <v>219.1499938964844</v>
+      </c>
+      <c r="E366" t="n">
+        <v>222.2899932861328</v>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="n">
+        <v>22158012</v>
+      </c>
+      <c r="H366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I366" t="n">
+        <v>2</v>
+      </c>
+      <c r="J366" t="n">
+        <v>14</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>7</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R366"/>
+  <dimension ref="A1:R371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20665,7 +20665,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
-      <c r="R362" t="inlineStr"/>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -20717,7 +20719,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
-      <c r="R363" t="inlineStr"/>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -20769,7 +20773,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
-      <c r="R364" t="inlineStr"/>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -20821,7 +20827,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
-      <c r="R365" t="inlineStr"/>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -20873,7 +20881,269 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
-      <c r="R366" t="inlineStr"/>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B367" t="n">
+        <v>222.25</v>
+      </c>
+      <c r="C367" t="n">
+        <v>224</v>
+      </c>
+      <c r="D367" t="n">
+        <v>217.1399993896484</v>
+      </c>
+      <c r="E367" t="n">
+        <v>222.4499969482422</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="n">
+        <v>21988190</v>
+      </c>
+      <c r="H367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I367" t="n">
+        <v>2</v>
+      </c>
+      <c r="J367" t="n">
+        <v>17</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>8</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B368" t="n">
+        <v>223.5599975585938</v>
+      </c>
+      <c r="C368" t="n">
+        <v>223.9799957275391</v>
+      </c>
+      <c r="D368" t="n">
+        <v>217.0099945068359</v>
+      </c>
+      <c r="E368" t="n">
+        <v>221.0200042724609</v>
+      </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="n">
+        <v>19138940</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I368" t="n">
+        <v>2</v>
+      </c>
+      <c r="J368" t="n">
+        <v>18</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>8</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B369" t="n">
+        <v>221.0200042724609</v>
+      </c>
+      <c r="C369" t="n">
+        <v>229.6999969482422</v>
+      </c>
+      <c r="D369" t="n">
+        <v>219.2599945068359</v>
+      </c>
+      <c r="E369" t="n">
+        <v>228.9199981689453</v>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="n">
+        <v>14085760</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I369" t="n">
+        <v>2</v>
+      </c>
+      <c r="J369" t="n">
+        <v>19</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>8</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B370" t="n">
+        <v>228</v>
+      </c>
+      <c r="C370" t="n">
+        <v>235.8999938964844</v>
+      </c>
+      <c r="D370" t="n">
+        <v>225.8999938964844</v>
+      </c>
+      <c r="E370" t="n">
+        <v>235.2700042724609</v>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="n">
+        <v>15681050</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I370" t="n">
+        <v>2</v>
+      </c>
+      <c r="J370" t="n">
+        <v>20</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>8</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B371" t="n">
+        <v>236</v>
+      </c>
+      <c r="C371" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="D371" t="n">
+        <v>232.6399993896484</v>
+      </c>
+      <c r="E371" t="n">
+        <v>233.6699981689453</v>
+      </c>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="n">
+        <v>15149193</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2</v>
+      </c>
+      <c r="J371" t="n">
+        <v>21</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>8</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R371"/>
+  <dimension ref="A1:R380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20935,7 +20935,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
-      <c r="R367" t="inlineStr"/>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -20987,7 +20989,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
-      <c r="R368" t="inlineStr"/>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -21039,7 +21043,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
-      <c r="R369" t="inlineStr"/>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -21091,7 +21097,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
-      <c r="R370" t="inlineStr"/>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -21143,7 +21151,477 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
-      <c r="R371" t="inlineStr"/>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B372" t="n">
+        <v>231</v>
+      </c>
+      <c r="C372" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="D372" t="n">
+        <v>228.0099945068359</v>
+      </c>
+      <c r="E372" t="n">
+        <v>228.4499969482422</v>
+      </c>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="n">
+        <v>14715000</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2</v>
+      </c>
+      <c r="J372" t="n">
+        <v>24</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>9</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B373" t="n">
+        <v>229.5899963378906</v>
+      </c>
+      <c r="C373" t="n">
+        <v>231.6699981689453</v>
+      </c>
+      <c r="D373" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="E373" t="n">
+        <v>226.3200073242188</v>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="n">
+        <v>11683220</v>
+      </c>
+      <c r="H373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2</v>
+      </c>
+      <c r="J373" t="n">
+        <v>25</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N373" t="n">
+        <v>9</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B374" t="n">
+        <v>226.3600006103516</v>
+      </c>
+      <c r="C374" t="n">
+        <v>228</v>
+      </c>
+      <c r="D374" t="n">
+        <v>221.0500030517578</v>
+      </c>
+      <c r="E374" t="n">
+        <v>221.6999969482422</v>
+      </c>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="n">
+        <v>16215290</v>
+      </c>
+      <c r="H374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2</v>
+      </c>
+      <c r="J374" t="n">
+        <v>27</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>9</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B375" t="n">
+        <v>219.2599945068359</v>
+      </c>
+      <c r="C375" t="n">
+        <v>219.8999938964844</v>
+      </c>
+      <c r="D375" t="n">
+        <v>207</v>
+      </c>
+      <c r="E375" t="n">
+        <v>207.6100006103516</v>
+      </c>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="n">
+        <v>50855490</v>
+      </c>
+      <c r="H375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2</v>
+      </c>
+      <c r="J375" t="n">
+        <v>28</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N375" t="n">
+        <v>9</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B376" t="n">
+        <v>210</v>
+      </c>
+      <c r="C376" t="n">
+        <v>210.25</v>
+      </c>
+      <c r="D376" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="E376" t="n">
+        <v>200.9199981689453</v>
+      </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="n">
+        <v>51311990</v>
+      </c>
+      <c r="H376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I376" t="n">
+        <v>3</v>
+      </c>
+      <c r="J376" t="n">
+        <v>3</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>10</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B377" t="n">
+        <v>199.9900054931641</v>
+      </c>
+      <c r="C377" t="n">
+        <v>208.0399932861328</v>
+      </c>
+      <c r="D377" t="n">
+        <v>199.0200042724609</v>
+      </c>
+      <c r="E377" t="n">
+        <v>206.3800048828125</v>
+      </c>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="n">
+        <v>50579880</v>
+      </c>
+      <c r="H377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3</v>
+      </c>
+      <c r="J377" t="n">
+        <v>4</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N377" t="n">
+        <v>10</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B378" t="n">
+        <v>207</v>
+      </c>
+      <c r="C378" t="n">
+        <v>217.6600036621094</v>
+      </c>
+      <c r="D378" t="n">
+        <v>207</v>
+      </c>
+      <c r="E378" t="n">
+        <v>217.1000061035156</v>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="n">
+        <v>36954750</v>
+      </c>
+      <c r="H378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3</v>
+      </c>
+      <c r="J378" t="n">
+        <v>5</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>10</v>
+      </c>
+      <c r="O378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B379" t="n">
+        <v>222</v>
+      </c>
+      <c r="C379" t="n">
+        <v>222.3899993896484</v>
+      </c>
+      <c r="D379" t="n">
+        <v>218.0599975585938</v>
+      </c>
+      <c r="E379" t="n">
+        <v>219.9400024414062</v>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="n">
+        <v>24296330</v>
+      </c>
+      <c r="H379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3</v>
+      </c>
+      <c r="J379" t="n">
+        <v>6</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" t="n">
+        <v>10</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B380" t="n">
+        <v>220</v>
+      </c>
+      <c r="C380" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="D380" t="n">
+        <v>218.7899932861328</v>
+      </c>
+      <c r="E380" t="n">
+        <v>221.8099975585938</v>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="n">
+        <v>27985463</v>
+      </c>
+      <c r="H380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3</v>
+      </c>
+      <c r="J380" t="n">
+        <v>7</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>10</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R380"/>
+  <dimension ref="A1:R389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21205,7 +21205,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
-      <c r="R372" t="inlineStr"/>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -21257,7 +21259,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
-      <c r="R373" t="inlineStr"/>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -21309,7 +21313,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
-      <c r="R374" t="inlineStr"/>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -21361,7 +21367,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
-      <c r="R375" t="inlineStr"/>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -21405,7 +21413,7 @@
         <v>10</v>
       </c>
       <c r="O376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P376" t="n">
         <v>0</v>
@@ -21413,7 +21421,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
-      <c r="R376" t="inlineStr"/>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -21465,7 +21475,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
-      <c r="R377" t="inlineStr"/>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -21517,7 +21529,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
-      <c r="R378" t="inlineStr"/>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -21569,7 +21583,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
-      <c r="R379" t="inlineStr"/>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -21621,7 +21637,477 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
-      <c r="R380" t="inlineStr"/>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B381" t="n">
+        <v>222.6000061035156</v>
+      </c>
+      <c r="C381" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="D381" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="E381" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="n">
+        <v>19521400</v>
+      </c>
+      <c r="H381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3</v>
+      </c>
+      <c r="J381" t="n">
+        <v>10</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>11</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B382" t="n">
+        <v>214.6999969482422</v>
+      </c>
+      <c r="C382" t="n">
+        <v>218.9900054931641</v>
+      </c>
+      <c r="D382" t="n">
+        <v>213.0099945068359</v>
+      </c>
+      <c r="E382" t="n">
+        <v>217.5599975585938</v>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="n">
+        <v>20118890</v>
+      </c>
+      <c r="H382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3</v>
+      </c>
+      <c r="J382" t="n">
+        <v>11</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>11</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B383" t="n">
+        <v>220</v>
+      </c>
+      <c r="C383" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="D383" t="n">
+        <v>216.7200012207031</v>
+      </c>
+      <c r="E383" t="n">
+        <v>225.5299987792969</v>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="n">
+        <v>28455080</v>
+      </c>
+      <c r="H383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3</v>
+      </c>
+      <c r="J383" t="n">
+        <v>12</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N383" t="n">
+        <v>11</v>
+      </c>
+      <c r="O383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B384" t="n">
+        <v>227.8800048828125</v>
+      </c>
+      <c r="C384" t="n">
+        <v>228.9400024414062</v>
+      </c>
+      <c r="D384" t="n">
+        <v>221.3200073242188</v>
+      </c>
+      <c r="E384" t="n">
+        <v>222.6000061035156</v>
+      </c>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="n">
+        <v>25219080</v>
+      </c>
+      <c r="H384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I384" t="n">
+        <v>3</v>
+      </c>
+      <c r="J384" t="n">
+        <v>13</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>11</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B385" t="n">
+        <v>223.1199951171875</v>
+      </c>
+      <c r="C385" t="n">
+        <v>223.8500061035156</v>
+      </c>
+      <c r="D385" t="n">
+        <v>218.5399932861328</v>
+      </c>
+      <c r="E385" t="n">
+        <v>219.5200042724609</v>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="n">
+        <v>22290920</v>
+      </c>
+      <c r="H385" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3</v>
+      </c>
+      <c r="J385" t="n">
+        <v>17</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N385" t="n">
+        <v>12</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B386" t="n">
+        <v>221.1000061035156</v>
+      </c>
+      <c r="C386" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="D386" t="n">
+        <v>220.7100067138672</v>
+      </c>
+      <c r="E386" t="n">
+        <v>225.1799926757812</v>
+      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="n">
+        <v>28081310</v>
+      </c>
+      <c r="H386" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I386" t="n">
+        <v>3</v>
+      </c>
+      <c r="J386" t="n">
+        <v>18</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>12</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B387" t="n">
+        <v>227.2700042724609</v>
+      </c>
+      <c r="C387" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="D387" t="n">
+        <v>225.6399993896484</v>
+      </c>
+      <c r="E387" t="n">
+        <v>228.8399963378906</v>
+      </c>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="n">
+        <v>21456930</v>
+      </c>
+      <c r="H387" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I387" t="n">
+        <v>3</v>
+      </c>
+      <c r="J387" t="n">
+        <v>19</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>12</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>1</v>
+      </c>
+      <c r="R387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B388" t="n">
+        <v>231</v>
+      </c>
+      <c r="C388" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="D388" t="n">
+        <v>228.9499969482422</v>
+      </c>
+      <c r="E388" t="n">
+        <v>231.6900024414062</v>
+      </c>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="n">
+        <v>24426400</v>
+      </c>
+      <c r="H388" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I388" t="n">
+        <v>3</v>
+      </c>
+      <c r="J388" t="n">
+        <v>20</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>12</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B389" t="n">
+        <v>232</v>
+      </c>
+      <c r="C389" t="n">
+        <v>235.9400024414062</v>
+      </c>
+      <c r="D389" t="n">
+        <v>228.0500030517578</v>
+      </c>
+      <c r="E389" t="n">
+        <v>229.1199951171875</v>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="n">
+        <v>46789450</v>
+      </c>
+      <c r="H389" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I389" t="n">
+        <v>3</v>
+      </c>
+      <c r="J389" t="n">
+        <v>21</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>12</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R389"/>
+  <dimension ref="A1:R398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21691,7 +21691,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
-      <c r="R381" t="inlineStr"/>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -21743,7 +21745,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
-      <c r="R382" t="inlineStr"/>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -21795,7 +21799,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
-      <c r="R383" t="inlineStr"/>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -21847,7 +21853,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
-      <c r="R384" t="inlineStr"/>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -21899,7 +21907,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
-      <c r="R385" t="inlineStr"/>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -21951,7 +21961,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
-      <c r="R386" t="inlineStr"/>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -22003,7 +22015,9 @@
       <c r="Q387" t="n">
         <v>1</v>
       </c>
-      <c r="R387" t="inlineStr"/>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -22055,7 +22069,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
-      <c r="R388" t="inlineStr"/>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -22107,7 +22123,477 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
-      <c r="R389" t="inlineStr"/>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B390" t="n">
+        <v>231.8999938964844</v>
+      </c>
+      <c r="C390" t="n">
+        <v>234.4600067138672</v>
+      </c>
+      <c r="D390" t="n">
+        <v>230.6999969482422</v>
+      </c>
+      <c r="E390" t="n">
+        <v>232.6799926757812</v>
+      </c>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="n">
+        <v>26607360</v>
+      </c>
+      <c r="H390" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I390" t="n">
+        <v>3</v>
+      </c>
+      <c r="J390" t="n">
+        <v>24</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>13</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B391" t="n">
+        <v>234.1000061035156</v>
+      </c>
+      <c r="C391" t="n">
+        <v>234.1999969482422</v>
+      </c>
+      <c r="D391" t="n">
+        <v>226.3099975585938</v>
+      </c>
+      <c r="E391" t="n">
+        <v>227.5299987792969</v>
+      </c>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="n">
+        <v>22492780</v>
+      </c>
+      <c r="H391" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I391" t="n">
+        <v>3</v>
+      </c>
+      <c r="J391" t="n">
+        <v>25</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>13</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B392" t="n">
+        <v>228</v>
+      </c>
+      <c r="C392" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="D392" t="n">
+        <v>222.0099945068359</v>
+      </c>
+      <c r="E392" t="n">
+        <v>222.6699981689453</v>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="n">
+        <v>19372530</v>
+      </c>
+      <c r="H392" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I392" t="n">
+        <v>3</v>
+      </c>
+      <c r="J392" t="n">
+        <v>26</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>13</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B393" t="n">
+        <v>222.1699981689453</v>
+      </c>
+      <c r="C393" t="n">
+        <v>228</v>
+      </c>
+      <c r="D393" t="n">
+        <v>221.3300018310547</v>
+      </c>
+      <c r="E393" t="n">
+        <v>225.7799987792969</v>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="n">
+        <v>188868800</v>
+      </c>
+      <c r="H393" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3</v>
+      </c>
+      <c r="J393" t="n">
+        <v>27</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>13</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B394" t="n">
+        <v>227.1799926757812</v>
+      </c>
+      <c r="C394" t="n">
+        <v>232.3000030517578</v>
+      </c>
+      <c r="D394" t="n">
+        <v>226.1100006103516</v>
+      </c>
+      <c r="E394" t="n">
+        <v>227.5099945068359</v>
+      </c>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="n">
+        <v>30356330</v>
+      </c>
+      <c r="H394" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3</v>
+      </c>
+      <c r="J394" t="n">
+        <v>28</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>13</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B395" t="n">
+        <v>227</v>
+      </c>
+      <c r="C395" t="n">
+        <v>231.2899932861328</v>
+      </c>
+      <c r="D395" t="n">
+        <v>225.2100067138672</v>
+      </c>
+      <c r="E395" t="n">
+        <v>230.4199981689453</v>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="n">
+        <v>18781790</v>
+      </c>
+      <c r="H395" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I395" t="n">
+        <v>4</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>14</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B396" t="n">
+        <v>230.9900054931641</v>
+      </c>
+      <c r="C396" t="n">
+        <v>230.9900054931641</v>
+      </c>
+      <c r="D396" t="n">
+        <v>225.3000030517578</v>
+      </c>
+      <c r="E396" t="n">
+        <v>229.7799987792969</v>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="n">
+        <v>16203180</v>
+      </c>
+      <c r="H396" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I396" t="n">
+        <v>4</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>14</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B397" t="n">
+        <v>227</v>
+      </c>
+      <c r="C397" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="D397" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>230.4100036621094</v>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="n">
+        <v>11752610</v>
+      </c>
+      <c r="H397" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I397" t="n">
+        <v>4</v>
+      </c>
+      <c r="J397" t="n">
+        <v>3</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>14</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B398" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="C398" t="n">
+        <v>230.3500061035156</v>
+      </c>
+      <c r="D398" t="n">
+        <v>220.8000030517578</v>
+      </c>
+      <c r="E398" t="n">
+        <v>222.3200073242188</v>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="n">
+        <v>20818829</v>
+      </c>
+      <c r="H398" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I398" t="n">
+        <v>4</v>
+      </c>
+      <c r="J398" t="n">
+        <v>4</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>14</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R398"/>
+  <dimension ref="A1:R402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22115,7 +22115,7 @@
         <v>12</v>
       </c>
       <c r="O389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P389" t="n">
         <v>0</v>
@@ -22177,7 +22177,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
-      <c r="R390" t="inlineStr"/>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -22229,7 +22231,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
-      <c r="R391" t="inlineStr"/>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -22281,7 +22285,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
-      <c r="R392" t="inlineStr"/>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -22333,7 +22339,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
-      <c r="R393" t="inlineStr"/>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -22385,7 +22393,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
-      <c r="R394" t="inlineStr"/>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -22437,7 +22447,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
-      <c r="R395" t="inlineStr"/>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -22489,7 +22501,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
-      <c r="R396" t="inlineStr"/>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -22541,7 +22555,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
-      <c r="R397" t="inlineStr"/>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -22593,7 +22609,217 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
-      <c r="R398" t="inlineStr"/>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B399" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="C399" t="n">
+        <v>215</v>
+      </c>
+      <c r="D399" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="E399" t="n">
+        <v>213.5200042724609</v>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="n">
+        <v>25772060</v>
+      </c>
+      <c r="H399" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I399" t="n">
+        <v>4</v>
+      </c>
+      <c r="J399" t="n">
+        <v>7</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>15</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B400" t="n">
+        <v>217</v>
+      </c>
+      <c r="C400" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="D400" t="n">
+        <v>216.6199951171875</v>
+      </c>
+      <c r="E400" t="n">
+        <v>224.8099975585938</v>
+      </c>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="n">
+        <v>25131280</v>
+      </c>
+      <c r="H400" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I400" t="n">
+        <v>4</v>
+      </c>
+      <c r="J400" t="n">
+        <v>8</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>15</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B401" t="n">
+        <v>224</v>
+      </c>
+      <c r="C401" t="n">
+        <v>224</v>
+      </c>
+      <c r="D401" t="n">
+        <v>218.25</v>
+      </c>
+      <c r="E401" t="n">
+        <v>220.9199981689453</v>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="n">
+        <v>19372730</v>
+      </c>
+      <c r="H401" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I401" t="n">
+        <v>4</v>
+      </c>
+      <c r="J401" t="n">
+        <v>9</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N401" t="n">
+        <v>15</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B402" t="n">
+        <v>225.7799987792969</v>
+      </c>
+      <c r="C402" t="n">
+        <v>230.9799957275391</v>
+      </c>
+      <c r="D402" t="n">
+        <v>223.7200012207031</v>
+      </c>
+      <c r="E402" t="n">
+        <v>230.0200042724609</v>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="n">
+        <v>24620268</v>
+      </c>
+      <c r="H402" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I402" t="n">
+        <v>4</v>
+      </c>
+      <c r="J402" t="n">
+        <v>11</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N402" t="n">
+        <v>15</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R402" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="R301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -22016,7 +22016,7 @@
         <v>1</v>
       </c>
       <c r="R387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -22663,7 +22663,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
-      <c r="R399" t="inlineStr"/>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -22715,7 +22717,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
-      <c r="R400" t="inlineStr"/>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -22767,7 +22771,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
-      <c r="R401" t="inlineStr"/>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -22819,7 +22825,165 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
-      <c r="R402" t="inlineStr"/>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B403" t="n">
+        <v>235.8999938964844</v>
+      </c>
+      <c r="C403" t="n">
+        <v>239.4900054931641</v>
+      </c>
+      <c r="D403" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="E403" t="n">
+        <v>238.5700073242188</v>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="n">
+        <v>27663800</v>
+      </c>
+      <c r="H403" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I403" t="n">
+        <v>4</v>
+      </c>
+      <c r="J403" t="n">
+        <v>15</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N403" t="n">
+        <v>16</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B404" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="C404" t="n">
+        <v>242.75</v>
+      </c>
+      <c r="D404" t="n">
+        <v>237.2599945068359</v>
+      </c>
+      <c r="E404" t="n">
+        <v>242.2799987792969</v>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="n">
+        <v>27720760</v>
+      </c>
+      <c r="H404" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I404" t="n">
+        <v>4</v>
+      </c>
+      <c r="J404" t="n">
+        <v>16</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>16</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B405" t="n">
+        <v>242.9400024414062</v>
+      </c>
+      <c r="C405" t="n">
+        <v>248</v>
+      </c>
+      <c r="D405" t="n">
+        <v>238.3000030517578</v>
+      </c>
+      <c r="E405" t="n">
+        <v>246.4700012207031</v>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="n">
+        <v>30422200</v>
+      </c>
+      <c r="H405" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I405" t="n">
+        <v>4</v>
+      </c>
+      <c r="J405" t="n">
+        <v>17</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>16</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R405" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R405"/>
+  <dimension ref="A1:R414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -22016,7 +22016,7 @@
         <v>1</v>
       </c>
       <c r="R387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -22655,7 +22655,7 @@
         <v>15</v>
       </c>
       <c r="O399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P399" t="n">
         <v>0</v>
@@ -22879,7 +22879,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
-      <c r="R403" t="inlineStr"/>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -22931,7 +22933,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
-      <c r="R404" t="inlineStr"/>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -22983,7 +22987,477 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
-      <c r="R405" t="inlineStr"/>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B406" t="n">
+        <v>250</v>
+      </c>
+      <c r="C406" t="n">
+        <v>250</v>
+      </c>
+      <c r="D406" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="E406" t="n">
+        <v>246.3800048828125</v>
+      </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="n">
+        <v>31786610</v>
+      </c>
+      <c r="H406" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I406" t="n">
+        <v>4</v>
+      </c>
+      <c r="J406" t="n">
+        <v>21</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>17</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B407" t="n">
+        <v>245.5</v>
+      </c>
+      <c r="C407" t="n">
+        <v>251.3399963378906</v>
+      </c>
+      <c r="D407" t="n">
+        <v>243.6999969482422</v>
+      </c>
+      <c r="E407" t="n">
+        <v>250.5599975585938</v>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="n">
+        <v>30235260</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I407" t="n">
+        <v>4</v>
+      </c>
+      <c r="J407" t="n">
+        <v>22</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>17</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B408" t="n">
+        <v>252</v>
+      </c>
+      <c r="C408" t="n">
+        <v>258.5499877929688</v>
+      </c>
+      <c r="D408" t="n">
+        <v>251.3899993896484</v>
+      </c>
+      <c r="E408" t="n">
+        <v>258.1400146484375</v>
+      </c>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="n">
+        <v>37568330</v>
+      </c>
+      <c r="H408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I408" t="n">
+        <v>4</v>
+      </c>
+      <c r="J408" t="n">
+        <v>23</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>17</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B409" t="n">
+        <v>258</v>
+      </c>
+      <c r="C409" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="D409" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="E409" t="n">
+        <v>258.7799987792969</v>
+      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="n">
+        <v>17152000</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I409" t="n">
+        <v>4</v>
+      </c>
+      <c r="J409" t="n">
+        <v>24</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>17</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B410" t="n">
+        <v>258.7799987792969</v>
+      </c>
+      <c r="C410" t="n">
+        <v>261.6199951171875</v>
+      </c>
+      <c r="D410" t="n">
+        <v>249.1000061035156</v>
+      </c>
+      <c r="E410" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="n">
+        <v>33348710</v>
+      </c>
+      <c r="H410" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I410" t="n">
+        <v>4</v>
+      </c>
+      <c r="J410" t="n">
+        <v>25</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>17</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>1</v>
+      </c>
+      <c r="R410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B411" t="n">
+        <v>252.3899993896484</v>
+      </c>
+      <c r="C411" t="n">
+        <v>259.7000122070312</v>
+      </c>
+      <c r="D411" t="n">
+        <v>252.3000030517578</v>
+      </c>
+      <c r="E411" t="n">
+        <v>257.8999938964844</v>
+      </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="n">
+        <v>19380920</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I411" t="n">
+        <v>4</v>
+      </c>
+      <c r="J411" t="n">
+        <v>28</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>18</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B412" t="n">
+        <v>258.1000061035156</v>
+      </c>
+      <c r="C412" t="n">
+        <v>259.75</v>
+      </c>
+      <c r="D412" t="n">
+        <v>255.6000061035156</v>
+      </c>
+      <c r="E412" t="n">
+        <v>257.6300048828125</v>
+      </c>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="n">
+        <v>12494830</v>
+      </c>
+      <c r="H412" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I412" t="n">
+        <v>4</v>
+      </c>
+      <c r="J412" t="n">
+        <v>29</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>18</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B413" t="n">
+        <v>256</v>
+      </c>
+      <c r="C413" t="n">
+        <v>263.2999877929688</v>
+      </c>
+      <c r="D413" t="n">
+        <v>255.1999969482422</v>
+      </c>
+      <c r="E413" t="n">
+        <v>260.4200134277344</v>
+      </c>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="n">
+        <v>32058330</v>
+      </c>
+      <c r="H413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I413" t="n">
+        <v>4</v>
+      </c>
+      <c r="J413" t="n">
+        <v>30</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N413" t="n">
+        <v>18</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B414" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="C414" t="n">
+        <v>265.2000122070312</v>
+      </c>
+      <c r="D414" t="n">
+        <v>257.75</v>
+      </c>
+      <c r="E414" t="n">
+        <v>258.7999877929688</v>
+      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="n">
+        <v>20009632</v>
+      </c>
+      <c r="H414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I414" t="n">
+        <v>5</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N414" t="n">
+        <v>18</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1d/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R414"/>
+  <dimension ref="A1:R424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23041,7 +23041,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
-      <c r="R406" t="inlineStr"/>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -23093,7 +23095,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
-      <c r="R407" t="inlineStr"/>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -23145,7 +23149,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
-      <c r="R408" t="inlineStr"/>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -23197,7 +23203,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
-      <c r="R409" t="inlineStr"/>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -23249,7 +23257,9 @@
       <c r="Q410" t="n">
         <v>1</v>
       </c>
-      <c r="R410" t="inlineStr"/>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -23301,7 +23311,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
-      <c r="R411" t="inlineStr"/>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -23353,7 +23365,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
-      <c r="R412" t="inlineStr"/>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -23405,7 +23419,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
-      <c r="R413" t="inlineStr"/>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -23457,7 +23473,529 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
-      <c r="R414" t="inlineStr"/>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B415" t="n">
+        <v>259.6000061035156</v>
+      </c>
+      <c r="C415" t="n">
+        <v>262.3999938964844</v>
+      </c>
+      <c r="D415" t="n">
+        <v>259.2999877929688</v>
+      </c>
+      <c r="E415" t="n">
+        <v>260.6000061035156</v>
+      </c>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="n">
+        <v>10986240</v>
+      </c>
+      <c r="H415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I415" t="n">
+        <v>5</v>
+      </c>
+      <c r="J415" t="n">
+        <v>5</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N415" t="n">
+        <v>19</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B416" t="n">
+        <v>259.25</v>
+      </c>
+      <c r="C416" t="n">
+        <v>260.75</v>
+      </c>
+      <c r="D416" t="n">
+        <v>250.3999938964844</v>
+      </c>
+      <c r="E416" t="n">
+        <v>251.1999969482422</v>
+      </c>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="n">
+        <v>18568700</v>
+      </c>
+      <c r="H416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I416" t="n">
+        <v>5</v>
+      </c>
+      <c r="J416" t="n">
+        <v>6</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N416" t="n">
+        <v>19</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B417" t="n">
+        <v>245.0500030517578</v>
+      </c>
+      <c r="C417" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="D417" t="n">
+        <v>245.0500030517578</v>
+      </c>
+      <c r="E417" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="n">
+        <v>19393390</v>
+      </c>
+      <c r="H417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I417" t="n">
+        <v>5</v>
+      </c>
+      <c r="J417" t="n">
+        <v>7</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N417" t="n">
+        <v>19</v>
+      </c>
+      <c r="O417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B418" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="C418" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="D418" t="n">
+        <v>249.3999938964844</v>
+      </c>
+      <c r="E418" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="n">
+        <v>14849940</v>
+      </c>
+      <c r="H418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I418" t="n">
+        <v>5</v>
+      </c>
+      <c r="J418" t="n">
+        <v>8</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N418" t="n">
+        <v>19</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B419" t="n">
+        <v>244.1000061035156</v>
+      </c>
+      <c r="C419" t="n">
+        <v>250</v>
+      </c>
+      <c r="D419" t="n">
+        <v>242</v>
+      </c>
+      <c r="E419" t="n">
+        <v>248.3500061035156</v>
+      </c>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="n">
+        <v>25011070</v>
+      </c>
+      <c r="H419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I419" t="n">
+        <v>5</v>
+      </c>
+      <c r="J419" t="n">
+        <v>9</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N419" t="n">
+        <v>19</v>
+      </c>
+      <c r="O419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B420" t="n">
+        <v>258.9500122070312</v>
+      </c>
+      <c r="C420" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="D420" t="n">
+        <v>257</v>
+      </c>
+      <c r="E420" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="n">
+        <v>19437050</v>
+      </c>
+      <c r="H420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I420" t="n">
+        <v>5</v>
+      </c>
+      <c r="J420" t="n">
+        <v>12</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N420" t="n">
+        <v>20</v>
+      </c>
+      <c r="O420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B421" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="C421" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="D421" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E421" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="n">
+        <v>19305040</v>
+      </c>
+      <c r="H421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I421" t="n">
+        <v>5</v>
+      </c>
+      <c r="J421" t="n">
+        <v>13</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N421" t="n">
+        <v>20</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B422" t="n">
+        <v>268.7999877929688</v>
+      </c>
+      <c r="C422" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="D422" t="n">
+        <v>265.2000122070312</v>
+      </c>
+      <c r="E422" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="n">
+        <v>13255750</v>
+      </c>
+      <c r="H422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I422" t="n">
+        <v>5</v>
+      </c>
+      <c r="J422" t="n">
+        <v>14</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N422" t="n">
+        <v>20</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B423" t="n">
+        <v>268</v>
+      </c>
+      <c r="C423" t="n">
+        <v>274.6000061035156</v>
+      </c>
+      <c r="D423" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E423" t="n">
+        <v>273.7000122070312</v>
+      </c>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="n">
+        <v>16201350</v>
+      </c>
+      <c r="H423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I423" t="n">
+        <v>5</v>
+      </c>
+      <c r="J423" t="n">
+        <v>15</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>20</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B424" t="n">
+        <v>274.1000061035156</v>
+      </c>
+      <c r="C424" t="n">
+        <v>277.9500122070312</v>
+      </c>
+      <c r="D424" t="n">
+        <v>273.0499877929688</v>
+      </c>
+      <c r="E424" t="n">
+        <v>277</v>
+      </c>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="n">
+        <v>13429795</v>
+      </c>
+      <c r="H424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I424" t="n">
+        <v>5</v>
+      </c>
+      <c r="J424" t="n">
+        <v>16</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>20</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
